--- a/deuChatbot/research_result/table_to_json(2500_100).xlsx
+++ b/deuChatbot/research_result/table_to_json(2500_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20767,6 +20767,6877 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, "각 종목별 배점 비율은 70%입니다."라는 문장은 원본 텍스트의 "배점 : 700점 (70%)"에서 배점의 총점을 생략하고 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관되며, 실기시험의 구조와 요구사항을 잘 설명하고 있습니다. 그러나 "각 종목별 배점 비율"이라는 표현이 원본의 배점 설명과 약간의 차이를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 다루고 있으며, 실기시험에 대한 정보가 직접적으로 관련되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 부분이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, 배점에 대한 설명에서 약간의 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되었으나, 일부 세부 사항에서 약간의 부정확성이 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8345117806860305</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 기초디자인과 사고의 전환 두 가지 종목을 선택하여 응시하게 됩니다. 각 종목별 배점 비율은 70%입니다.
+기초디자인 종목에서는 주제A와 주제B 중에서 각각 하나를 선정하여 연결된 주제를 추첨으로 결정합니다. 예를 들어, 잠자리와 저울을 연결하는 주제를 만들게 됩니다. 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물은 모두 1회 이상 표현해야 합니다.
+사고의 전환 종목에서는 주제A와 주제B 중에서 각각 하나를 선정하여 연결된 주제를 추첨으로 결정합니다. 예를 들어, 콜라병과 계절을 연결하는 주제를 만들게 됩니다. 제공된 사물은 모두 1회 이상 표현해야 하며, 색상 변경은 금지되어 있습니다.
+각 종목의 준비물로는 볼펜, 연필, 색연필, 수채물감 등이 필요하며, 화지는 켄트지 크기입니다. 시험 시간은 5시간 동안 진행됩니다.
+위와 같은 절차를 통해 디자인조형학과의 실기시험을 준비하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기 종목과 준비물, 주제 등을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8706908064829156</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환' 두 가지입니다.
+1. **실기종목**:
+   - 기초디자인
+   - 사고의 전환
+2. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+3. **실기주제**:
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+     - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+     - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요. 제공된 사물은 모두 1회 이상 표현해야 합니다.
+     - 제공된 사물의 색상은 변경하지 마세요.
+4. **화지크기**:
+   - 켄트지3절
+5. **시간**:
+   - 5시간
+이 정보를 바탕으로 디자인조형학과의 실기 준비에 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 완전하고 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회 목록과 관련된 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9010696974364295</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 모집종목별로 인정하는 대회들은 다음과 같습니다.
+1. **배드민턴(남)** : 한국중·고연맹회장기전국학생선수권대회, 대한배드민턴협회장기전국종별배드민턴선수권대회, 전국학교대항배드민턴선수권대회, 전국종별배드민턴선수권대회, 전국연맹종별배드민턴선수권대회, 전국체육대회, 각종국제대회, 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정), 광역시·도 협회장기 종별대회
+2. **축구(남)** :춘계한국고등학교축구연맹전, 추계한국고등학교축구연맹전, 대한축구협회장배전국고등학교축구대회, 문화체육관광부장관기전국고등학교축구대회, 문화체육관광부장관배전국고등학교축구대회, 백운기전국고등학교축구대회, 전국고등축구리그(권역별고교축구리그), 전국고등축구리그왕중왕전, 무학기전국고등학교축구대회, 청룡기전국고등학교축구대회, 백록기전국고등학교축구대회, 금강대기전국고등학교축구대회, 대통령금배전국고등학교축구대회, 금석배전국고등학생축구대회, 부산MBC전국고등학생축구대회, K리그 U18 챔피언십, K리그 U18 챔피언십왕중왕전
+이러한 대회들에서 우수한 성적을 거두면 경기지도학과의 모집에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 주제A와 주제B의 내용을 대부분 정확하게 반영하고 있지만, "피망 (오이)"라는 표현은 원본 텍스트에 없는 정보입니다. 또한, "잠자리와 콜라병"이라는 예시는 원본 텍스트의 예시와 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하지만, 예시에서 "잠자리와 콜라병"을 언급함으로써 원본 텍스트와의 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 실기시험의 주제와 추첨 방식에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 설명이 명확하게 이어지지만, 예시 부분에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 주제A와 주제B의 내용은 정확하지만, 추가된 정보(피망 (오이) 및 콜라병)는 원본 텍스트와 일치하지 않으므로 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 일부 사실적 오류와 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보로 인해 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서의 어색함이 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7373132649736384</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 추첨으로 결정합니다.
+주제A에는 다음과 같은 사물들이 포함되어 있습니다:
+- 잠자리
+- 무궁화
+- 피망 (오이)
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B에는 다음과 같은 사물들이 포함되어 있습니다:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+예시로 주제A와 주제B를 연결하면, 잠자리와 콜라병을 연결하는 등의 주제가 될 수 있습니다. 실제 시험에서는 당일 추첨으로 결정되므로 정확한 주제는 알 수 없습니다.
+추첨이 이루어질 때의 조건은 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물은 모두 1회 이상 표현해야 합니다. 또한 제공된 사물의 색상은 변경해서는 안 됩니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 점수가 반영된다고 주장하고 있지만, 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 반대되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있어 일관성이 전혀 없습니다. 원문에서 출결 점수가 반영되지 않는다고 했으나, 생성된 응답에서는 반영된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 학생부 교과 전형의 출결 점수에 대한 정보를 제공하고 있습니다. 그러나 내용이 잘못된 정보이기 때문에 관련성은 있지만 정확성은 결여되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 사실적 불일치로 인해 논리적 흐름이 약간 손상되었습니다. 그러나 내부적으로는 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 반대되는 정보를 제공하고 있어 정확성이 매우 낮습니다. 출결 점수가 반영된다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 매우 낮은 점수를 받았습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어 의미적으로 부적절합니다. 원문에서의 의미와 완전히 반대되는 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6366328696768081</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영됩니다. 결석일수에 따라 다음과 같이 반영점수가 결정됩니다:
+- 0~2일 결석일수: 120점
+- 3~6일 결석일수: 90점
+- 7~12일 결석일수: 60점
+- 13~20일 결석일수: 30점
+- 21일 이상 결석일수: 0점
+이러한 기준에 따라 출결 점수가 학생부 교과성적 평균에 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 국어국문학과의 모집 인원에 대한 명확한 정보를 제공하지 않고 있으며, 실제로는 17명을 모집한다고 명시된 사실을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 모집 인원이 17명이라고 명확히 언급하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 모집 인원에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 다른 정보로 대체하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관된 흐름이 부족합니다. 따라서 일관성 점수가 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 잘못된 정보를 제공합니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 부적절한 정보로 대체하고 있습니다. 따라서 의미 적합성이 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 원본 텍스트와의 관계가 명확하지 않아 혼란스러울 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.5564219141373085</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 국어국문학과에 대한 모집인원이 없습니다. 다른 계열이나 모집단위에서는 모집인원이 주어졌으나, 국어국문학과에 대한 명확한 모집인원은 없네요. 더 자세한 정보를 얻기 위해서는 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 확인해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 인문사회과학대학 영어영문학과의 모집인원에 대한 정확한 정보를 제공하지 않고 있으며, 오히려 모집인원이 언급되지 않았다고 잘못된 주장을 하고 있습니다. 원본 텍스트에서는 28명의 신입생을 선발한다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본에서는 모집인원이 명확히 제시되었으나, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 정확성과 관련성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 부적절한 주장을 하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있으나, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5585326165447794</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 모집인원이 직접적으로 언급되어 있지 않습니다. 다른 계열이나 단과대학의 모집인원만 기재되어 있습니다.
+더 정확한 답변을 위해서는 "나군 학생부교과(농어촌학생전형)  - 정원외 모집단위 및 모집인원" 섹션에서 인문사회과학대학 영어영문학과의 모집인원을 확인해 보시거나, 제공된 링크를 통해 최신 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 22명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본의 내용과 전혀 일치하지 않으며, 서로 모순되는 정보를 포함하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 간호학과의 모집 인원에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 설명을 제공합니다. 그러나 원본과의 불일치로 인해 완전한 일관성을 가지지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 원본 텍스트의 정보와 크게 다릅니다. 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성, 일관성, 정확성에서 매우 낮은 점수를 받았지만, 관련성은 높습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 부적절합니다. 원본 텍스트의 의미와 크게 다르며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7162171703167729</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어 등급에 따른 점수를 정확하게 나열하고 있으나, 5등급부터 9등급까지의 점수가 누락되어 있어 완전한 정보는 아니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 영어 등급에 대한 정보를 제공하지만, 원본 텍스트에 포함된 모든 등급을 다루지 않아서 일관성이 떨어진다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 영어 등급에 따른 점수를 직접적으로 다루고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없다. 다만, 약간의 어색한 표현이 있을 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽다. 그러나 등급이 누락된 부분에서 약간의 일관성이 떨어진다.
+6. Accuracy Score (1-5): 4
+   - 설명: 제공된 점수는 정확하지만, 모든 등급에 대한 정보가 포함되지 않아 완전한 정확성은 부족하다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 보이지만, 정보의 누락으로 인해 일부 점수가 낮아졌다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 누락된 정보로 인해 완전한 적절성은 부족하다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하고 이해하기 쉬우나, 누락된 정보로 인해 완전한 이해를 방해할 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8663346996878458</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+이 점수들은 각 등급별로 수능 영어 성적을 평가할 때 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 주장하고 있지만, 이는 원문에서 명확히 부정된 내용입니다. 원문에 따르면 예술고 학생은 지원할 수 없으며, 이는 사실과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문에서 예술고 학생의 지원 자격이 없다고 명시했음에도 불구하고, 생성된 응답은 지원이 가능하다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와 관련성이 낮습니다. 원문에서의 핵심 내용은 예술고 학생의 지원 불가라는 점인데, 생성된 응답은 이를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 예술고 학생이 지원할 수 없다는 사실을 무시하고 있으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7166768680833335</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 
+지원 자격은 다음과 같습니다:
+- 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자
+- 또는 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 자
+제출 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+5. 기타 필요한 서류 (농어촌 거주 증빙 등)
+따라서 예술고 학생도 농어촌 지역에서 교육을 받았다면 해당 전형으로 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 기록과 배점을 정확하게 반영하고 있습니다. 그러나 추가된 테이블 정보는 원본 텍스트와 관련이 없으며, 남자 제자리 멀리뛰기 기록이 포함되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지만, 추가된 테이블 정보가 원본 텍스트와 일관되지 않아서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용에 잘 연결되어 있지만, 추가된 테이블 정보는 주제와 직접적으로 관련이 없으므로 약간의 비관련성이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있지만, 추가된 테이블 정보로 인해 약간의 논리적 흐름이 방해받고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원본 텍스트의 정보는 정확하게 반영되었으나, 추가된 정보가 정확하지 않거나 관련이 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 보이지만, 추가된 정보로 인해 일부 차질이 발생했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 추가된 테이블 정보는 맥락에 맞지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8697489143442193</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 테이블에서 얻을 수 있습니다:
+| 등급 | 제자리 멀리뛰기(남/여) (cm) | Z-런 (남/여) (배점) |
+|------|---------------------------|--------------------|
+| 4    | 268～271                  | 14.80~14.99, 15.70~15.89 | 275 |
+따라서 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이고, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 12%라는 사실을 완전히 무시하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 경기지도학과의 출결 반영 비율을 명확히 제시하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 다른 학과에 대한 정보로 전환하고 있습니다. 이로 인해 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 점수를 약간 낮추었습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 경기지도학과의 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 측면에서 매우 낮은 점수를 받았습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 따라서 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 질문에 대한 답변이 부족하여 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5060580520890415</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 경기지도학과에 대한 출결 관련 정보가 없습니다. 다른 학과들의 경우 결석일수와 반영점수를 기준으로 출결 상황이 어떻게 반영되는지 설명되어 있지만, 경기지도학과에 대한 구체적인 정보는 없네요.
+더 자세한 정보를 얻으시려면 동의대학교의 공식 웹사이트인 "https://ipsi.deu.ac.kr/main.do"를 방문해보시거나 학교 관계자에게 직접 문의하시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.8906642000043468</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다. 
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5278005947317821</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 있습니다.
+추가 정보로, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 언급하고 있으며, 응용화학과의 역사적 배경에 대한 정보도 제공합니다. 그러나 응답에서 "일반적으로 동의대학교의 다른 학과들의 경우, 수능 최저기준이 없거나 특정 점수 이상이 필요하다는 정보가 있습니다."라는 부분은 다소 모호하며, 정확한 사실을 제공하지 않기 때문에 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 최저 기준이 없다는 점에서 일관성을 유지하고 있지만, 응용화학과의 정보와 관련하여 추가적인 설명이 포함되어 있어 다소 일관성이 떨어질 수 있습니다. 응답의 여러 부분이 서로 연결되지 않는 느낌을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 응용화학과와 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 잘 작성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 응용화학과의 역사적 배경에 대한 설명이 질문의 핵심과는 다소 거리가 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 기준이 없다는 사실을 정확하게 반영하고 있으며, 응용화학과의 배경에 대한 정보도 사실에 기반하고 있습니다. 그러나 "일반적으로 동의대학교의 다른 학과들의 경우"라는 부분은 구체적인 사실을 제공하지 않기 때문에 완전한 정확성을 결여하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 잘 작성되었으며, 사실성, 관련성, 유창성, 일관성 등에서 긍정적인 평가를 받을 수 있습니다. 그러나 일부 모호한 표현이 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다. 그러나 일부 표현이 다소 모호하여 의미 전달이 완벽하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있어 완전한 점수를 주기에는 부족합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4143821721871321</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 응용화학과에 대한 직접적인 정보가 제공되어 있지 않습니다. 응용화학과의 경우, 해당 학과가 2023년에는 화학환경공학부의 일부였으며, 2024년에는 독립된 학과로 분리되었습니다.
+현재 제공된 데이터에서는 응용화학과의 수능 최저기준을 확인할 수 없습니다. 하지만 일반적으로 동의대학교의 다른 학과들의 경우, 수능 최저기준이 없거나 특정 점수 이상이 필요하다는 정보가 있습니다.
+따라서 정확한 수능 최저기준을 파악하려면, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 학교 관계자에게 직접 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신설된 학과 목록에서 "심리학과", "스마트항만물류학과", "창업투자경영학과"를 언급하고 있지만, "창업투자경영학과"가 정원외로 모집된다는 정보는 원본 텍스트에 포함되어 있지 않습니다. 따라서 일부 사실이 누락되었거나 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, "창업투자경영학과"가 정원외로 모집된다는 주장은 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 신설된 학과에 대한 정보를 명확하게 전달하고 있습니다. 그러나 "정원외"에 대한 언급이 원본과의 일관성을 해치므로 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, "창업투자경영학과"의 모집 상태에 대한 정보가 원본 텍스트와 일치하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 잘못 해석되었으므로 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7146442144216315</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과"가 있습니다. 하지만 "창업투자경영학과"는 정원외로 모집되고 있습니다.
+따라서 2024학년도 동의대학교에서 신설된 학과 중 정원내로 모집되는 것은 "심리학과"와 "스마트항만물류학과"입니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 명확한 정보를 제공하지 않고, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 그에 대한 부정확한 정보를 제공합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보를 무시하고, 관련 없는 웹사이트 링크와 문의 방법을 제시하고 있습니다. 이는 원본 텍스트와의 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다. 정보가 없다는 주장은 원본의 내용을 무시하는 것입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있으나, 내용이 원본과 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6653357838047194</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 전형요소 반영비율에 대한 명확한 데이터가 없습니다. 따라서, 해당 정보를 찾기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 자세한 내용을 확인해보시거나, 동의대학교 입학처에 직접 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 "ICT융합공과대학"에서만 수능 가산점을 적용한다고 언급하고 있지만, 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학의 세 가지 모집단위에서 가산점을 적용한다고 명시되어 있습니다. 따라서 사실관계에 대한 정확성이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 세 가지 모집단위를 언급하는 반면, 생성된 응답은 오직 "ICT융합공과대학"만을 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 수능 가산점과 관련된 정보를 제공하지만, 원본 텍스트의 주요 내용인 가산점 적용 학과에 대한 정보가 부족합니다. 추가적인 정보는 있지만, 핵심 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 "ICT융합공과대학"만을 언급하고 있어 정확성이 떨어집니다. 원본 텍스트의 모든 모집단위를 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 부족한 점이 많습니다. 사실관계, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 의미를 완전히 반영하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7129184234813114</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과는 "ICT융합공과대학"입니다. 이 대학에는 다양한 학과가 있으며, 각 학과별로 지원 인원과 경쟁률이 다릅니다. 예를 들어, 컴퓨터공학과에서는 지원 인원이 51명이고 경쟁률이 4.25인 반면, 소프트웨어공학부에서는 지원 인원이 146명이고 경쟁률이 4.87입니다.
+ICT융합공과대학의 학과들은 모두 수능 점수를 기반으로 하며, 가산점도 포함되어 평균 변환 점수를 통해 선발 과정을 진행합니다. 이 정보는 각 학과별로 지원 자격과 경쟁률 등을 이해하는 데 도움이 될 것입니다.
+더 구체적인 정보나 다른 질문이 있으시다면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 일치하지 않으며, 구체적인 반영 과목과 방법에 대한 정보가 추가되었지만, 원문에서 제공된 정보와는 다소 차이가 있습니다. 원문에서는 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하라고 하였으나, 생성된 응답은 그 내용을 구체적으로 설명하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보가 포함되어 있으며, 특히 반영 과목과 방법에 대한 설명이 원문과 상충합니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 특정 과목에 대한 세부 사항을 추가하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조한 '100% 반영'이라는 핵심 포인트를 간과하고 있습니다. 그러나 수능 성적 반영 방법에 대한 추가 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 명확하지 않아 일관성이 떨어집니다. 원문에서 제시한 정보와 생성된 응답의 정보가 잘 연결되지 않아 논리적 흐름이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 다르게 수능 성적 반영 방법에 대한 구체적인 내용을 추가했지만, 원문에서 명시된 '100% 반영'이라는 사실을 왜곡하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 떨어지며, 특히 사실성과 일관성에서 낮은 점수를 받았습니다. 전반적으로 원문과의 관계가 약해 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 핵심 메시지를 왜곡하고 있어 의미적으로 적절하지 않습니다. 원문에서 강조한 '100% 반영'이라는 점이 누락되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7226279579452538</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- **국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사** 교과 성적을 반영합니다.
+- **반영방법**: 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영합니다. 한의예과는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목을 반영합니다.
+이러한 방식으로 학생들의 성적을 종합적으로 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사의 날짜를 정확하게 반영하고 있습니다. 그러나 나군 실기고사에 대한 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 가군 실기고사 날짜에 대한 정보는 일치하지만, 나군 실기고사에 대한 언급은 원본 텍스트와 일치하지 않아서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 가군 실기고사 날짜에 직접적으로 관련이 있으며, 추가적인 정보도 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 가군 실기고사와 나군 실기고사에 대한 정보를 명확하게 전달하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 가군 실기고사 날짜는 정확하지만, 나군 실기고사에 대한 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으나, 일부 정보의 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 나군 실기고사에 대한 언급은 다소 불필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있으며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.8193170096349409</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 1월 16일(화)에 진행됩니다. 
+참조로, 나군 실기고사는 1월 17일(수)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 나군 수능(일반학생전형)에서 제외되는 모집단위에 대한 정보를 제공하지 않고, 검정고시 및 외국고에 대한 내용으로 대체하고 있습니다. 이는 원문과 전혀 관련이 없는 정보로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 포함하고 있습니다. 원문에서는 특정 학과가 제외된다고 명시하고 있지만, 생성된 응답은 검정고시와 외국고에 대한 내용으로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 관련이 없습니다. 원문은 특정 학과의 제외에 대한 질문인데, 생성된 응답은 전혀 다른 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 적절성에 따라 전체적인 평가가 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관련성이 떨어져 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 전혀 다른 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5937100401329918</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 수능(일반학생전형)에서 검정고시 및 외국고는 지원이 불가능합니다. 
+따라서, 동의대학교 2024학년도 나군 수능(일반학생전형)에서는 검정고시와 외국고가 제외됩니다.
+더 궁금하신 사항이 있으시면 https://ipsi.deu.ac.kr/main.do로 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 수능 최저기준에 대한 명확한 설명을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8173137049455849</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+참조할 내용은 다음과 같습니다:
+```json
+{
+    "전형 유형": "수능 위주",
+    "전형명": "다군 수능(일반학생전형) 전 모집단위",
+    "모집 인원": 180,
+    "사정 단계": "일괄 합산",
+    "전형요소 반영비율(%)": {
+        "학생부 교과": 0,
+        "출결": 0,
+        "서류": 0,
+        "면접": 0,
+        "실기": 0,
+        "수능": 100
+    },
+    "수능최저기준": "수능최저기준 없음"
+}
+```
+위 내용에서 `수능최저기준` 항목이 `"수능최저기준 없음"`으로 되어 있어, 수능 최저기준이 적용되지 않는 것을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8709262101362392</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+위와 같이 2024학년도 동의대학교에서는 여러 학과가 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공하고 있어 사실성을 잘 유지하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 관련된 정보가 일관되게 제공되고 있으며, 원본 텍스트와 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 추가적인 세부사항도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7442756679684563</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면 원서접수(인터넷) 마감일은 2024년 1월 6일까지입니다. 자세한 일정은 다음과 같습니다:
+- 원서접수(인터넷): 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+원서접수는 이 기간 내에 완료해야 하며, 마감일은 2024년 1월 6일입니다.
+더 궁금한 사항이 있으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도에 전형 요소 반영비율이 변경되지 않았다고 주장하지만, 원본 텍스트에서는 여러 전형의 반영비율이 명확히 변경되었음을 설명하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본 텍스트는 전형 요소의 변화를 명확히 설명하고 있는데, 생성된 응답은 이러한 변화를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 전형 요소의 변화를 다루고 있지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 원본 텍스트의 세부 사항을 무시하고 일반적인 설명을 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성에 문제가 있어 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전형 요소의 변화를 잘못 설명하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 부적절한 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.726040862509726</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 반영비율이 변경된 전형은 없습니다. 모든 전형에서 학생부 교과, 출결, 서류, 면접, 실기, 수능의 반영 비율이 동일하게 유지되고 있습니다(전형요소 반영비율 항목 참조). 
+특히 각 전형별로 다음과 같은 특징들이 유지되었습니다:
+- 수능 위주 전형에서는 수능 점수가 100% 반영됩니다.
+- 실기/실적 위주의 전형에서는 실기가 70%, 수능이 30% 반영됩니다.
+- 학생부교과 전형에서는 서류와 면접의 비율이 각각 달라집니다.
+따라서 2024학년도에 변화가 있는 것은 단순히 학과 명칭이나 분리, 통합 등에 대한 것이며, 실제 전형 요소 반영비율은 변경되지 않았습니다. 더 자세한 내용이 필요하시다면 원래의 링크를 참조해주세요: https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 잘못 해석하고 있습니다. 응답에서는 레저스포츠학과와 태권도학과를 제외한 모든 학과에서 실기가 30%라고 언급하고 있지만, 원문에서는 전체 실기 비중이 70%라고 명시되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문에서는 실기 비중이 70%라고 명시되어 있지만, 생성된 응답에서는 특정 학과를 제외한 나머지 학과의 실기 비중이 30%라고 하여 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시된 핵심 정보인 실기 비중에 대한 정확한 설명이 부족합니다. 그러나 전반적으로 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 정보의 정확성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 일관성이 부족하여 논리적인 흐름이 약간 깨집니다. 특히, 실기 비중에 대한 설명이 모순되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 다르게 정보를 전달하고 있습니다. 실기 비중에 대한 잘못된 해석이 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 부적절한 부분이 있습니다. 실기 비중에 대한 잘못된 해석이 포함되어 있어 의미 전달이 명확하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있지만, 정보의 정확성이 떨어져 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6948671940547113</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 레저스포츠학과와 태권도학과를 제외한 모든 학과에서 실기가 30%의 비중을 차지합니다. 
+특히, 레저스포츠학과와 태권도학과는 실기가 70%의 비중을 차지하며, 이들 학과에서는 수능이 30%의 비중을 차지합니다.
+따라서, 정리하면 다음과 같습니다:
+- 가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과: 실기 70%, 수능 30%
+- 나머지 모든 학과: 실기 30%, 수능 70%</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공의 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공의 구성에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 일관됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8056858120468523</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 '라이프융합학부'는 세 가지 전공으로 구성됩니다. 이들 전공은 다음과 같습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+따라서, 동의대학교 2024학년도에 신설되는 '라이프융합학부'는 위 세 가지 전공으로 이루어져 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '태권도학과'가 언급되지 않았습니다. 또한, '체육학과'가 누락되어 있어 사실관계에 여러 가지 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, '체육학과'가 빠져 있고 '태권도학과'가 추가되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 정보를 포함하고 있어 관련성은 있지만 정확성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있으며, '체육학과'가 누락되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.7724866804197045</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과에서는 실기고사를 진행하며, 그 외의 학과들은 수능 성적만을 기준으로 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에 지원 가능한 학과를 정확하게 나열하고 있으며, 경기지도학과의 신설에 대한 정보도 포함되어 있습니다. 그러나 '가군'과 '나군' 전형에 대한 언급은 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대부분 일치하지만, '가군'과 '나군' 전형에 대한 추가 정보가 포함되어 있어 원본 텍스트와의 일관성이 떨어질 수 있습니다. 이로 인해 일부 일관성이 부족하다고 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기/실적 위주 전형에 지원 가능한 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 중복된 표현이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 정보가 명확하게 전달됩니다. 그러나 '가군'과 '나군' 전형에 대한 추가 설명이 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, '가군'과 '나군' 전형에 대한 언급이 원본 텍스트에 없으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 부정확성이 있어 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 중복된 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.7372278086657845</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '가군 실기/실적(일반학생전형)' 및 '나군 실기/실적(일반학생전형)'은 다음과 같은 학과에서 지원이 가능합니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과
+이러한 학과들은 실기/실적 위주 전형인 '가군 실기/실적(일반학생전형)' 및 '나군 실기/실적(일반학생전형)'을 통해 지원할 수 있습니다.
+추가로, 경기지도학과는 2024년도에 신설되었으며, 이전에는 해당 전형이 없었습니다. 따라서 경기지도학과를 지원하려면 2024년도부터 가능해졌습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 전공 목록을 정확하게 반영하고 있으며, 추가된 정보도 관련성이 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8895390019088675</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 정보는 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 모집단위 및 모집인원" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 마이스터고에 대한 설명이 추가되어 있어 약간의 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 마이스터고에 대한 추가 정보가 원문과는 다소 다른 맥락으로 제시되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보가 원문과 다르게 제시되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 정보의 누락과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 추가된 정보가 원문과의 맥락에서 다소 벗어나 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6715545797952794</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교 일반학생전형으로 지원 가능합니다. 
+특수목적고등학교에 속하는 경우로는 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등이 해당되며, 이들 학교의 학생들은 동의대학교 모든 모집군(가군, 나군, 다군)에서 지원이 가능합니다.
+만약 특정 전형명을 확인하고자 한다면, 더 자세한 정보를 제공해 주시면 도와드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 무역학과가 가장 많이 모집한다고 잘못 기술하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서 언급된 두 학과와는 다른 학과에 대한 정보가 제공되어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 나군 전형에 대한 정보를 제공하고 있으나, 원문에서 요구하는 특정 학과에 대한 정보와는 관련성이 떨어집니다. 많은 정보를 포함하고 있지만, 질문의 핵심에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 원문과의 연결이 약해 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 모집하는 학과에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원문에서 요구하는 특정 정보와는 다소 차이가 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6826196342944568</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+- **나군 실기/실적(경기실적우수자전형)**:
+  - 배드민턴(남) : 최대 700점
+  - 축구(남) : 최대 700점
+- **나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원**:
+  - 인문사회과학대학의 중어중국학과 교직 : 최대 4명
+  - 인문사회과학대학의 일본학과 교직 : 최대 3명
+  - 인문사회과학대학의 심리학과 신설 : 최대 3명
+  - 인문사회과학대학의 아동학과 : 최대 3명
+  - 상경대학의 금융경영학과 : 최대 5명
+  - 상경대학의 재무부동산학과 : 최대 3명
+  - 상경대학의 무역학과 교직 : 최대 6명
+  - 상경대학의 유통물류학과 : 최대 4명
+  - 상경대학의 경영학과 교직 : 최대 6명
+  - 상경대학의 회계학과 교직 : 최대 3명
+  - 상경대학의 국제관광경영학과 교직 : 최대 4명
+- **나군 학생부종합(평생학습자전형/성인학습자 전형/재직자전형) 모집단위 및 모집인원**:
+  - 미래융합대학의 라이프융합학부 신설 : 최대 11명
+  - 미래융합대학의 부동산자산경영학부 : 최대 7명
+가장 많이 모집하는 학과는 **상경대학의 무역학과 교직**로, 최대 6명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 응답에서는 지원이 가능하다고 주장하고 있으며, 이는 원문과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 지원이 불가능하다고 명시하고 있지만, 응답에서는 지원이 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 원문과 관련된 내용을 다루고 있으나, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서 언급된 지원 자격에 대한 정확한 정보가 포함되어 있지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 지원 자격에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 응답은 여러 차원에서 매우 낮은 품질을 보이고 있습니다. 사실성, 일관성, 정확성 모두에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 응답의 의미가 원문과 전혀 일치하지 않으며, 문맥에 맞지 않는 정보를 제공합니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.7068023471162435</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 농어촌학생전형인 '학생부교과(농어촌학생전형)'로 지원할 수 있습니다. 
+특수목적고등학교 중에서 과학고, 국제고, 외국어고는 지원 가능하지만, 예술고와 체육고는 지원이 불가능합니다.
+따라서 지원 가능한 특수목적고등학교는 다음과 같습니다:
+- 과학고
+- 국제고 
+- 외국어고
+특히, 지원 자격에 대한 자세한 내용은 동의대학교 입시 홈페이지를 확인하시거나, 대학 입학처와 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있으며, 생성된 응답은 잘못된 정보를 제공하고 있어 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 일관되지만, 원본 텍스트와의 관계가 명확하지 않아 논리적 흐름이 약간 부족합니다. 원본 텍스트와의 연결이 없기 때문에 완전한 일관성을 갖추지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으며, 생성된 응답은 잘못된 수치를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리고 있는데, 생성된 응답은 잘못된 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5728924528507364</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균으로, **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 성적에 대한 정보가 없다는 점을 언급하고 있지만, 다른 전형의 평균 성적 구성 요소에 대한 정보를 추가로 제공하고 있습니다. 이는 원본 텍스트와 일치하지 않으며, 원본 텍스트의 핵심 정보를 왜곡할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 다른 전형의 성적 구성 요소를 언급함으로써 일관성이 떨어집니다. 원본 텍스트는 소프트웨어공학부에 대한 정보가 없다고 명확히 하고 있으므로, 추가적인 정보는 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않지만, 관련된 정보를 제공하고 있습니다. 그러나 소프트웨어공학부에 대한 정보가 없다는 점을 강조하는 것이 더 적절했을 것입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 정보가 잘 정리되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하지만, 다른 전형의 성적 구성 요소에 대한 정보는 원본 텍스트와 관련이 없습니다. 따라서 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 약간의 문제가 있지만, 전반적으로 유용한 정보를 제공합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하지 않습니다. 다른 전형의 성적 구성 요소를 언급하는 것은 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트와의 관계가 명확하지 않아 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.6959637370357221</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부에 대한 특별한 데이터가 없습니다. 다른 전형의 경우, 국어, 수학, 탐구(2개)와 영어 등급이 평균 성적을 구성합니다. 하지만 소프트웨어공학부에 대한 정보는 없네요. 더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보시거나, 입학처에 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 일정과 충원 합격자 등록 일정에 대한 세부 사항이 추가되어 있습니다. 원본 텍스트에는 이러한 세부 사항이 포함되어 있지 않으므로, 일부 정보가 과도하게 추가되어 사실성과 정확성에 영향을 미쳤습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 일정과 일치하지만, 추가된 정보로 인해 일관성이 떨어질 수 있습니다. 특히, 최초 합격자 등록 일정과 관련된 내용은 원본 텍스트에 없으므로, 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있으며, 주제와 관련성이 높습니다. 그러나 추가된 등록 일정이 원본 텍스트와는 다소 차이가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 추가된 정보가 사실과 일치하지 않을 수 있습니다. 특히, 최초 합격자 등록 일정과 관련된 내용은 원본에 없으므로 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 정확성에서 일부 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8004145128073962</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록**
+   - **일정**: 2024년 2월 2일 (금) 14:00
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+2. **최초 합격자 등록**
+   - **일정**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - **시간**: 은행 마감 시간 내
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+3. **충원 합격자 발표 및 등록**
+   - **1차 충원 합격자 발표**
+     - **일정**: 2024년 2월 14일 (수) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **1차 충원 합격자 등록**
+     - **일정**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **2차 충원 합격자 발표**
+     - **일정**: 2024년 2월 15일 (목) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **2차 충원 합격자 등록**
+     - **일정**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **3차 이후 충원 합격자 발표**
+     - **일정**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **3차 이후 충원 합격자 등록**
+     - **일정**: 개별 전화 통보 시 안내
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 면접 날짜(2024. 01. 20.)를 누락하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 면접 일정에 대한 정보가 누락되어 있습니다. 원본 텍스트의 내용을 반영하지 않기 때문에 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접 일정에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 정보를 다루지 않고 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 관련이 없기 때문에 일관성이 떨어집니다. 따라서 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 면접 일정에 대한 구체적인 내용을 제공하지 않기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4229292484815734</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>면접 시간은 정확히 언제인지 제공된 정보에서 확인할 수 없습니다. 일반적으로 입학사정관이 평가하는 개별면접의 경우, 해당 모집단위에 대한 자세한 일정은 본교 웹사이트 또는 입학처에서 공지됩니다. 따라서 면접일정을 확인하려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 웹사이트 링크 제공은 원본 텍스트에 포함되지 않은 정보입니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 한의예과의 최저학력 기준이 없다는 내용을 유지하고 있습니다. 그러나 웹사이트 링크는 원본 텍스트와는 관련이 없으므로 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 한의예과의 최저학력 기준에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제공된 정보에서"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 내용을 잘 전달하고 있습니다. 그러나 웹사이트 링크의 추가로 인해 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있지만, 웹사이트 링크는 원본 텍스트에 포함되지 않은 정보입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 웹사이트 링크로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 웹사이트 링크는 원본의 의미와는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.6138229070817113</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력기준에 대한 내용은 없습니다. 만약 한의예과의 최저학력기준을 알고 싶다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 자세한 정보를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보 제공을 위한 웹사이트 링크도 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.6204716894775263</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시전형에서 수능 최저학력 기준은 제공되지 않았습니다. 현재 정보로는 특정 단과대학이나 모집단위별로 수능 최저학력 기준을 설정하지 않은 것으로 보입니다.
+만약 더 자세한 정보가 필요하시다면, 동의대학교 입학사정관실 웹사이트(https://ipsi. deu.ac.kr/main.do)를 방문하여 확인해보시는 것이 좋습니다. 해당 사이트에서 최신 정시전형 안내 및 수능최저학력기준 등 자세한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 사실을 잘 반영하고 있습니다. 그러나 "2024년 2월 15일(목)에 충원합격자를 발표합니다"라는 문장은 2차 발표일을 잘못 해석한 것으로 보입니다. 2차 발표는 2월 15일 오전 9시에 이루어지지만, 3차 이후 발표는 같은 날 오후 7시부터 시작됩니다. 이로 인해 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 2차 발표와 3차 이후 발표의 시점을 혼동하고 있습니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 발표 일정에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 다만, 발표 일정의 순서가 약간 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 2차 발표와 3차 이후 발표의 시점에 대한 혼동이 있어 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 발표 일정의 일부 내용이 혼동을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8733201832027103</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)에 충원합격자를 발표합니다. 이날짜 이후로 추가적으로 합격자를 발표하고 등록을 진행하게 됩니다.
+발표 일정은 다음과 같습니다:
+- 2024년 2월 14일(수): 1차 충원 합격자 발표
+- 2024년 2월 15일(목): 1차 충원 합격자 등록
+- 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지: 3차 이후 충원 합격자 발표 및 등록
+이 정보를 참고하여 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "추가합격자 발표"에 대한 정보를 제공하고 있지만, 원본 텍스트에서 명시된 "충원합격자 발표" 일정에 대한 내용을 무시하고 있습니다. 따라서 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 충원합격자 발표 일정에 대한 구체적인 정보를 제공하고 있지만, 생성된 응답은 그 정보를 전혀 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 추가합격자 발표에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제인 충원합격자 발표 일정과는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 제공합니다. 원본 텍스트의 구체적인 일정이 무시되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 연결이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 맞지 않아서 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.561514274608753</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 "추가합격자 발표"에 대한 명확한 일정이 없습니다. 추가합격자 발표의 정확한 날짜와 시간은 일반적으로 대학 입학처 웹사이트에서 공지되거나, 학생들에게 개별적으로 연락이 가는 경우가 많습니다.
+추가합격자 발표를 확인하려면 다음을 참조하시기 바랍니다:
+- 대학의 공식 웹사이트를 방문하여 최신 정보를 확인합니다.
+- 입학처에 직접 문의하거나, 학교 관계자를 통해 정보를 얻으시는 것이 좋습니다.
+특히 2024년 나군 전형의 경우, 추가합격자 발표 일정이 변경될 수 있으므로, 대학 입학처 웹사이트나 연락처를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집에 대한 명확한 내용이 없다고 언급하고 있지만, 원문에서는 추가 모집이 이루어진다고 명시하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 추가 모집이 이루어진다고 명시하고 있지만, 응답에서는 추가 모집에 대한 구체적인 내용이 없다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 추가 모집에 대한 구체적인 정보가 부족하다는 점에서 약간의 관련성 결여가 있습니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원문과의 연결이 약해져서 논리적 일관성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 원문에서 제공하는 정보와 다소 상충하는 내용을 포함하고 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 평균적이며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 원문과 대체로 일치하지만, 추가 모집에 대한 정보가 부족하다는 점에서 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 다만, 원문과의 연결이 약해져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4962100403481888</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로 보면, 추가 모집에 대한 명확한 내용은 포함되어 있지 않습니다. 각 전형별로 정원 내외 지원 자격과 모집 인원이 제시되어 있지만, 추가 모집에 대한 구체적인 내용은 없습니다.
+만약 추가 모집을 하고 있다면, 일반적으로 다음과 같은 정보가 포함될 것입니다:
+- 추가 모집의 이유
+- 추가 모집 대상 전형
+- 추가 모집 인원
+- 지원 자격 조건
+위와 같은 정보를 확인하려면, 해당 기관의 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나, 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 성인 학습자를 위한 입학 전형 방법에 대한 설명을 포함하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 지원 자격 서류와 관련된 정보도 원본 텍스트와 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 성인 학습자에 대한 설명을 포함하고 있어 원본 텍스트와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 다르며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 평가했을 때, 생성된 응답은 원본 텍스트와의 일치성이 낮고, 관련성 및 정확성에서도 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제가 다르기 때문에 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.621749902958978</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 한 입학 전형 방법입니다. 이는 재직자, 농업 및 수산업 종사자, 군 경력자 등 다양한 배경을 가진 성인 학습자들을 위한 특별한 제도입니다.
+지원 자격 서류와 관련하여:
+1. 농업, 수산업 등의 1차 산업체 종사자는 국가 또는 지방자치단체가 발급하는 공적증명서(농림지원부 등 발행)를 제출해야 합니다.
+2. 군 경력자는 주민등록초본(주민등록번호 전체가 기재된 서류 발급하여 제출)을 제출해야 합니다.
+서류 평가는 다음과 같은 영역으로 이루어집니다:
+1. 공동체역량: 협업능력을 평가합니다.
+2. 학업역량: 학업태도와 성취, 수업시간 참여 등을 평가합니다.
+3. 전공적합성: 지원자의 열정과 관련된 활동 및 경험을 평가합니다.
+평가 점수는 각 영역별로 1등급에서 5등급까지의 등급으로 나뉘며, 이에 따라 합격 여부가 결정됩니다.
+면접 평가는 개별 면접 형식으로 진행되며, 지원 동기와 학업 계획, 학업 역량 및 전공 적합성 등을 평가합니다. 
+동점자 처리 기준은 다음과 같습니다:
+1. 면접고사 성적 상위자
+2. 서류평가 공동체역량 영역 성적 상위자
+3. 서류평가 전공적합성 영역 성적 상위자
+이러한 정보를 바탕으로 평생학습자전형에 대한 자세한 내용을 이해하실 수 있습니다. 더 궁금하신 사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 전혀 일치하지 않으며, 새로운 조건을 제시하고 있습니다. 원본 텍스트의 내용과는 완전히 다른 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본의 지원자격 조건과는 전혀 다른 조건을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본에서 요구하는 지원자격과는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 따라 점수가 다소 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성 부족으로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.5942159039900352</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2024년 나군 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 국가 또는 지방자치단체 및 공공단체 소속 직원이어야 합니다.
+2. 근로기준법 제11조에 따라 상시근로자 5인 이상 사업체에서 재직 중이어야 합니다 (사업주 포함).
+3. 4대 보험 중 하나 이상 가입된 사업체에서 재직 중이어야 합니다 (창업 및 자영업자 포함).
+단, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가 또는 지방자치단체가 발급하는 공적증명서를 통해 인정받을 수 있습니다.
+재직 기간은 2024년 3월 1일 기준으로 총 재직 기간이 3년 이상(예정)이어야 합니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 신설된 학과들에 대한 정보로 대체하고 있습니다. 이는 원본 텍스트의 핵심 정보를 무시하고 다른 주제로 전환한 것으로, 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보만을 제공하고 있지만, 생성된 응답은 다른 학과에 대한 정보로 일관성을 잃었습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 주제를 다루고 있지만, 실기고사에 대한 구체적인 정보가 부족하여 관련성이 떨어집니다. 원본 텍스트의 핵심 주제인 실기고사 대기실 및 입실시간에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 부족합니다. 실기고사에 대한 정보가 아닌 다른 학과에 대한 정보로 전환되면서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않고, 실기고사에 대한 구체적인 정보가 결여되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 다르게 해석되고 있으며, 실기고사에 대한 정보가 부족하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4086025987730231</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2024년도에 신설된 학과들 중에서 실기고사가 필요한 곳은 "심리학과", "스마트항만물류학과", "창업투자경영학과", "라이프융합학부" 등이 있습니다. 하지만 제공된 정보에서는 실기고사에 대한 구체적인 장소나 절차에 대해 언급되어 있지 않습니다.
+더 자세한 정보를 얻으시려면, 해당 대학의 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사 종목과 배점에 대한 내용을 담고 있습니다. 이는 원본 텍스트와 관련이 없으며, 사실적으로도 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 주제와의 관련성이 없기 때문에 전체적인 이해에는 도움이 되지 않습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2648447261080848</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 메디신볼 던지기와 제자리 멀리뛰기 두 가지 종목으로 구성되어 있습니다. 
+1. 메디신볼 던지기는 243점(23%)을 배점받습니다.
+2. 제자리 멀리뛰기는 240점(24%)을 배점받습니다.
+실기고사는 이러한 두 가지 종목으로 진행되며, 각각의 종목별로 배점을 받습니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보를 받을 수 있다고 잘못 언급하고 있습니다. 또한, 최종 합격자 발표일과 관련된 정보는 원문에 포함되어 있지 않으며, 이는 원문과의 사실적 일치가 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있는데, 생성된 응답에서는 전화 통보를 받을 수 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 일부 정보를 포함하고 있지만, 주제와 관련이 없는 추가적인 정보(예: 최종 합격자 발표일, 고지서 출력 방법 등)가 포함되어 있어 원문과의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 원문과의 일관성이 떨어지기 때문에 내용의 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 그러나 문장 자체는 이해할 수 있는 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 전화 통보가 이루어지지 않는다는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다. 원문에서의 정보와 상충하는 내용이 많습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6383503482201475</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수시 충원 합격자 발표 후에는 개별적으로 전화 통보를 받으실 수 있습니다. 특히, 최종 합격자 발표일이 2024년 2월 15일 목요일부터 시작되며, 이날 이후로는 추가 합격자를 결정하여 발표하게 됩니다.
+최종 합격자 발표 후에는 홈페이지에서 개별적으로 조회하실 수 있으며, 고지서도 홈페이지에서 출력하거나 입학관리팀에서 수령하실 수 있습니다. 등록장소는 학교 지정은행으로 하며, 등록금 고지서에 기재된 정보를 참고해주세요.
+만약 추가 합격자 발표 후에도 전화 통보를 받으시려면, 해당 일정을 확인하시고 입학관리팀에 문의하시는 것이 좋습니다. 더 자세한 내용은 https://ipsi.deu.ac.kr/main.do 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 정확히 반영하고 있습니다. 그러나 2024학년도 모집인원에 대한 언급은 2023학년도 수시모집 결과와 직접적인 관련이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 2024학년도 모집인원에 대한 정보는 원본 텍스트에서 언급되지 않았기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수시모집 결과에 대한 정보 부족을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 2024학년도 모집인원에 대한 언급이 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 2024학년도 모집인원에 대한 정보는 2023학년도 수시모집 결과와 관련이 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 2024학년도 모집인원에 대한 언급이 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.854967191720395</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 데이터 내에서는 명확히 확인할 수 없습니다. 
+데이터에는 2024학년도 경찰행정학과에 대한 모집인원이 7명으로 표기되어 있지만, 이는 2023학년도의 실제 수시모집 결과를 의미하지는 않습니다.
+더 자세한 정보를 얻으려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 공지사항을 확인하거나, 대학 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 지원할 수 있는 다양한 전형을 언급하고 있지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 원문과 상충되는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 응시와 관련된 다양한 전형을 설명하고 있지만, 원문에서 질문한 내용과는 관련이 적습니다. 원문은 정시모집 지원자의 수능 응시 여부에 대한 질문인데, 생성된 응답은 그에 대한 직접적인 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명이 포함되어 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문은 수능 응시가 필수라고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다. 원문과의 불일치로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4637868600780027</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도에는 수능 응시를 필수로 하지 않고, 다양한 전형을 통해 지원이 가능합니다. 특히 '학생부종합'과 '실기/실적 위주전형', '평생학습자전형', '성인학습자전형', '재직자전형' 등은 수능 응시를 하지 않아도 지원할 수 있는 전형들이 있습니다.
+특히 '학생부종합'과 같은 전형에서는 학교생활기록부와 서류 등을 통해 평가받습니다. 따라서 수능을 응시하지 않더라도, 자신의 학업역량과 적합성을 잘 보여주면 지원이 가능합니다.
+자세한 내용은 해당 대학의 입학처 웹사이트를 참조하시거나, 직접 문의해보시는 것이 좋겠습니다. https://ipsi. deu. ac. kr/main. do 링크에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문과 상충되는 내용을 담고 있습니다. 원문에서는 졸업 시기와 관계없이 지원이 가능하다고 명시하고 있지만, 생성된 응답은 재직 경력을 요구하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 재직 경력을 요구하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 재직 경력에 대한 정보가 추가되어 원문에서 언급된 핵심 사항을 벗어나고 있습니다. 따라서 관련성은 있지만, 원문에 대한 직접적인 답변은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 재직 경력에 대한 설명이 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충되는 내용을 포함하고 있어 정확성이 떨어집니다. 원문에서는 졸업 시기와 관계없이 지원이 가능하다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 재직 경력 요구 사항이 추가되어 원문의 의미와 다소 어긋납니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6059777475251035</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024 나군의 경우, 정시 모집에 지원할 수 있는 자격은 평생학습자전형이나 성인학습자전형인데, 이는 고등학교 졸업 후 3년 이상 재직 경력을 요구합니다. 따라서 고등학교를 졸업한지 10년이 지났다면, 정시 지원을 위해서는 먼저 재직 경력을 갖추어야 합니다.
+재직 경력의 경우, 국가·지방자치단체 및 공공단체 소속 직원이거나 상시근로자 5인 이상 사업체에서 근무한 경력이 필요합니다. 또한 4대 보험 중 하나 이상 가입되어 있어야 하며, 총 재직 기간은 3년 이상이어야 합니다.
+따라서 고등학교를 졸업한지 10년이 지났다면, 먼저 3년 이상의 재직 경력을 갖추고 나서 정시 지원을 할 수 있습니다. 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8223048463904638</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 내용: 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 06.(토), 마감일 18시까지
+   - 내용: 원서 접수는 인터넷을 통해 진행하며, 주요 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 12.(금), 마감일 17시까지 도착
+   - 내용: 서류 제출 대상은 입학 안내 홈페이지에서 확인 가능하며, 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 제출할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024. 01. 16.(화)
+   - 내용: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024. 01. 17.(수)
+   - 내용: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표 및 등록: 2024. 02. 02.(금) 14:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화), 은행마감시간 내
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 1차 발표 및 등록: 2024. 02. 14.(수) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 2차 발표 및 등록: 2024. 02. 15.(목) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 3차 이후 발표 및 등록: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+이상과 같이 동의대학교 정시 모집의 일정을 설명하였습니다. 필요하시면 추가 정보를 제공해 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 일정은 대체로 정확하지만, "학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받습니다."라는 문장은 원본 텍스트에 명시되어 있지 않은 정보입니다. 이로 인해 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 원본 텍스트와 생성된 응답 간에 일부 일치하는 부분이 있지만, "가군 수능(일반학생전형), 실기/실적(일반학생전형)"이라는 표현은 원본에 없는 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련된 정보만을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 전반적으로 문장이 잘 구성되어 있고 읽기 쉬우나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본과 다르게 표현되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 대부분의 정보는 정확하지만, 원본에 없는 추가 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 높은 품질을 보이나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하지만, 원본에 없는 정보가 포함되어 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8206032578218061</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 가군 수능(일반학생전형), 실기/실적(일반학생전형)의 주요 일정을 설명드리겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 접수 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 서류 제출 대상은 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받습니다.
+4. **실기고사**: 
+   - **레저스포츠학과, 태권도학과**는 2024년 1월 16일 (화)에 실시됩니다.
+   - **디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과**는 2024년 1월 17일 (수)에 실시됩니다.
+5. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+6. **충원 합격자 발표 및 등록**: 
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 09:00
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+7. **2차 충원 합격자 발표 및 등록**: 
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목) 09:00
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+8. **3차 이후 충원 합격자 발표 및 등록**: 
+   - 3차 이후 충원 합격자 발표: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+   - 3차 이후 충원 합격자 등록: 개별 전화 통보 시 안내
+이러한 일정을 참고하여 원서접수와 서류 제출 등을 진행하시면 됩니다. 자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다. https://ipsi. deu. ac. kr/main. do 링크를 통해 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서 제공하는 정보와는 상반된 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전반적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 부분이 있어 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.714177603429095</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집군에서 수능 미응시자도 지원이 가능한 전형은 "가군 실기/실적(일반학생전형)"입니다. 
+- **가군 실기/실적(일반학생전형)**: 수능 점수를 요구하지 않으며, 실기와 실적을 기준으로 모집합니다.
+따라서 수능 미응시자도 이 전형에 지원이 가능합니다. 자세한 내용은 동의대학교 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있지만, 충원 합격 차수에 대한 정보가 없다는 점을 명확히 하지 않았습니다. 그러나 전년도 충원 합격 인원 수에 대한 정보는 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 충원 합격 차수에 대한 정보가 없다는 점을 명확히 하지 않아 일관성이 떨어집니다. 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 전자공학과의 충원 합격에 대한 정보를 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 충원 합격 차수에 대한 언급이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격 인원 수에 대한 정보를 정확하게 반영하고 있지만, 충원 합격 차수에 대한 정보가 없다는 점에서 완전한 정확성을 제공하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 충원 합격 차수에 대한 정보가 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 정보가 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.6623219558788259</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 전자공학과 관련한 전형 요소 반영 비율이나 충원 합격 차수 등에 대한 자세한 내용이 없습니다. 전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌는지 확인하려면, 해당 대학의 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 최신 정보를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트와 상반되는 내용을 담고 있습니다. 원본 텍스트에 명확히 제공된 전화번호를 부정하고 있으며, 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전화번호가 포함되어 있지 않다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 전화번호를 언급하지 않고, 웹사이트를 통해 확인하라고 안내하고 있지만, 원본 텍스트의 핵심 정보인 전화번호에 대한 직접적인 언급이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 전화번호에 대한 정보가 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6524267213946181</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 찾으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 처리 방법에 대해 언급하고 있지만, 원본 텍스트에서 강조된 '등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다'는 중요한 사실을 누락하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정보가 다소 다릅니다. 원본 텍스트는 등록 포기자로 처리된다는 점을 강조하고 있으나, 생성된 응답은 다른 방법으로 합격 여부를 확인할 수 있다고 설명하고 있어 일관성이 부족합니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 전화 통화가 되지 않을 경우의 대안적인 방법을 제시하고 있습니다. 그러나 원본 텍스트의 핵심 사항인 등록 포기 처리에 대한 언급이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 사실을 누락하고 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 중요한 정보가 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5828687145811582</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우는 다음과 같이 처리됩니다:
+- **발표 및 등록**: 홈페이지에서 개별 조회를 통해 합격 여부 확인이 가능합니다.
+- **고지서 교부**: 합격자 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+- **등록장소**: 학교 지정은행으로 등록을 진행해야 합니다. 등록금 고지서에 기재된 정보를 참고하세요.
+따라서 전화 통화가 되지 않더라도, 위와 같은 방법으로 합격 여부 및 등록 절차를 처리할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "추가로 고교 졸업증명서"라는 언급은 원본 텍스트에 명시된 내용과 다소 차이가 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류 목록을 제시하고 있으며, 6년 과정과 12년 과정에 대한 구분도 잘 유지하고 있습니다. 다만, "추가로 고교 졸업증명서"라는 부분이 원본에 명시된 내용과 일치하지 않아 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다. 모든 주요 포인트를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 과정에 대한 서류를 명확하게 구분하고 있습니다. 그러나 마지막 문장에서 "추가로 고교 졸업증명서"라는 언급이 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "고교 졸업증명서"에 대한 언급이 원본에 명시된 내용과 다소 차이가 있어 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 일부 세부 사항에서 약간의 불일치가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "고교 졸업증명서"에 대한 언급이 원본의 의도와 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 필요한 정보를 잘 전달하고 있습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7933973159427332</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 농어촌학생전형으로 지원 시 제출해야 할 서류가 다릅니다. 
+**6년 과정**
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+- 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+- 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+**12년 과정**
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부 
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+- 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능
+위와 같은 서류를 준비하여 제출해야 합니다. 추가로 고교 졸업증명서, 지원자 본인, 부모의 초본 각 1부 (총 3부)가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 서류를 정확하게 나열하고 있지만, "교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보로 인해 일관성이 떨어질 수 있습니다. 특히, 원본 텍스트에는 발급 방법에 대한 언급이 없으므로 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류 목록을 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가된 정보가 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보를 정확하게 반영하고 있지만, 원본 텍스트에 없는 정보를 포함하고 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 맥락에 맞지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8396159569838211</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌 학생부교과 전형에서 제출해야 할 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "저소득 기회균등 전형"이라는 표현은 원문에서 언급되지 않았으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 기회균등 전형이 없음을 언급하고 있습니다. 다만, "저소득 기회균등 전형"이라는 표현이 추가되어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 질문에 대한 명확한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "https://ipsi. deu. ac. kr/main. do"의 표기에서 공백이 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "저소득 기회균등 전형"이라는 추가 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, "저소득 기회균등 전형"이라는 표현이 원문에 없으므로 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 약간의 부정확성과 일관성 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, "저소득 기회균등 전형"이라는 표현이 원문에 없으므로 의미적으로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 표현에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6810276153423053</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024년 나군 정시 모집에서는 저소득 기회균등 전형이 없습니다. 따라서 정시 모집에서 저소득 기회균등 전형으로 지원하는 것은 불가능합니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 대학 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 없다는 원문 내용을 왜곡하고 있습니다. 원문에서는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답에서는 2.5 등급이 절사되어 3등급으로 처리된다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5 등급이 절사된다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.532667381927047</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사하여 3등급으로 처리됩니다. 수능 영어영역의 등급은 정수만 인정되며, 소수점이 있는 경우 올림 처리가 아닌 절사로 처리됩니다.
+따라서 2.5 등급이 나오면 3등급으로 평균산출이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 원본 텍스트는 3차까지 발표가 이루어진다고 명시하고 있지만, 생성된 응답은 4차로 이루어진다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 발표 일정에 대한 정보를 잘 전달하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 4차 발표에 대한 언급이 원본과 다르기 때문에 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 4차 발표에 대한 언급은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 가지고 있습니다. 따라서 전반적인 품질은 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8325182738956958</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. **1차 충원 발표**: 2024년 2월 14일(수) 09:00에 이루어집니다.
+2. **2차 충원 발표**: 2024년 2월 15일(목) 09:00에 이루어집니다.
+3. **3차 이후 충원 발표**: 이는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보를 통해 이루어집니다.
+이와 같이 총 4차로 합격자 발표가 이루어지며, 각 차례마다 합격자들의 등록을 위한 일정이 정해져 있습니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "e비즈니스학과"에 대한 특정 데이터가 없다고 주장하지만, 원본 텍스트에는 해당 학과의 평균 점수와 관련된 정보가 명확히 제공되어 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, "e비즈니스학과"에 대한 정보가 없다고 주장합니다. 이는 원본 텍스트와 상충하는 내용으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 "e비즈니스학과"에 대한 정보를 요청하는 질문에 대해 관련된 정보를 제공하지 않고, 다른 학과의 정보에 대해 언급하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 연관성이 부족하여 전체적인 일관성이 떨어집니다. 정보가 분리되어 있어 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, "e비즈니스학과"에 대한 정보가 없다고 주장하는 것은 사실과 다릅니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 맞지 않는 내용이 포함되어 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.464780599065386</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "e비즈니스학과"에 대한 특정 데이터가 없습니다. 따라서 "e비즈니스학과"의 경우, 현재 주어진 데이터에서 수능 성적 평균 및 표준 편차를 확인할 수 없습니다.
+추가 합격 가능성 여부를 판단하기 위해서는 해당 학과의 수능 점수 평균, 경쟁률 등에 대한 정보가 필요합니다. 제공된 데이터 중에는 "ICT융합공과대학"의 여러 학과들의 수능 성적 정보가 있지만, "e비즈니스학과"에 대한 정보는 없습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 해당 학과의 최신 정보를 확인해보시거나, 대학 측에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 전형 유형과 모집 인원, 지원 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 합격 가능성에 대한 구체적인 수치를 포함하지 않아 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 판단이 원본 텍스트의 내용과 다소 상충하는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과에 대한 정보를 제공하며, 질문의 주제와 관련이 있지만, 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 논리적인 흐름이 있지만, 일부 정보가 원본 텍스트와의 연결이 약해 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 수치와 사실을 누락하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 약간의 부족함이 있어 전체적인 품질이 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6491485470585768</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과에 대한 정보를 확인해보겠습니다.
+e비즈니스학과는 "학생부교과" 전형으로 모집되며, 학생부 교과성적을 기준으로 합니다. 하지만 주어진 정보만으로는 정확한 최초합격 가능성 판단이 어렵습니다. e비즈니스학과의 입학사정관 평가 기준 및 경쟁률 등을 더 알아봐야 합니다.
+주요 정보를 요약하면:
+- 전형 유형: 학생부교과
+- 모집 인원: 23명 (예시로)
+- 지원 인원: 56명 (예시로)
+이와 관련하여 주의해야 할 점은 다음과 같습니다:
+1. 경쟁률이 높을 수 있으므로, 정확한 최초합격 가능성 판단은 입학사정관 평가 기준 및 경쟁률 등을 고려해야 합니다.
+2. e비즈니스학과는 학생부 교과성적을 기반으로 하기 때문에, 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다.
+주어진 정보만으로는 정확한 판단이 어렵습니다. 더 자세한 입학사정관 평가 기준 및 경쟁률 등을 확인해보시는 것이 좋겠습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번 지원자의 합격 가능성에 대한 여러 요소를 고려하고 있지만, 원본 텍스트에서 명시된 "예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다"라는 핵심 사실을 간과하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주장을 반박하는 내용을 포함하고 있으며, 예비 38번 지원자의 합격 가능성을 높게 평가하는 요소들을 제시하고 있습니다. 이는 원본 텍스트와 일치하지 않으므로 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 38번 지원자의 합격 가능성에 대한 다양한 요소를 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 메시지와는 다소 거리가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 이들 간의 논리적 연결이 다소 약해 보입니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 38번 지원자의 합격 가능성에 대한 잘못된 해석을 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과는 다소 다르게 해석되고 있으며, 일부 내용은 적절하지만 전체적으로는 맥락에 맞지 않는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.553739842727355</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 지원자의 경우, 정확한 합격 여부를 판단하기 위해서는 해당 전공의 모집인원과 지원 인원, 경쟁률 등을 고려해야 합니다. 하지만 현재 제공된 정보만으로 추론해보면 다음과 같습니다:
+1. **경쟁률**: 38번 지원자의 경우, 경쟁률이 높은 과목들에 지원할 가능성이 있습니다. 예를 들어, "중어중국학과"의 경쟁률은 1.63이며, "영어영문학과"는 2.43입니다.
+2. **성적**: 제공된 성적 정보(물리Ⅰ: 47점, 화학Ⅰ: 59점)를 바탕으로 국어+수학+탐구(2개)의 표준 변환 점수가 평균적으로 높은 편입니다. 이는 합격 가능성에 긍정적인 요인일 수 있습니다.
+3. **영어 등급**: 영어 등급이 4.08 이상이라면, "중어중국학과"와 같은 언어 관련 전공에서는 유리할 것입니다.
+4. **학생부 교과성적**: 제공된 학생부 교과성적을 바탕으로 평균적으로 높은 점수를 받았다면, 합격 가능성은 있습니다.
+하지만, 이는 단순 추론일 뿐 실제 합격 여부는 모집인원, 지원 인원, 경쟁률 등 다양한 요소에 따라 결정됩니다. 따라서 정확한 판단을 위해서는 해당 전공의 최종 합격자 명단과 관련 정보를 확인하는 것이 좋습니다.
+더 자세한 정보나 추가 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 포함하고 있으며, 합격 가능성에 대한 여러 요소를 언급하고 있습니다. 그러나, "2024학년도 동의대학교 간호학과의 정시 모집군은 '나군'"이라는 정보는 원본 텍스트에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가적인 정보(모집군, 학생 수 등)를 포함하고 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 다양한 요소를 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에 없는 세부사항이 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6124822037982522</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집군은 "나군"이며, 해당 군에서 일반 학생 모집 인원이 22명입니다. 성적 3.44는 대체로 중간 이상의 성적을 의미합니다.
+하지만 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+1. 전반적인 경쟁률: 동의대학교 간호학과의 경쟁률이 매우 높습니다.
+2. 진로선택과목 성적: 3.44는 전체 성적 중 일부를 반영하므로, 진로선택과목에서 좋은 성적이 나와야 합니다.
+3. 학생부 평가: 학생부 교과성적 외에도 면접 등 다른 요소도 고려됩니다.
+따라서 성적 3.44만으로는 확실한 합격을 보장받기는 어렵습니다. 하지만 경쟁률이 높지 않다면, 좋은 결과를 얻을 수 있는 가능성은 있습니다. 
+추가적으로, 동의대학교 간호학과의 경우 2023년도에는 "간호교육인증"이라는 특성화 인증을 획득하였습니다. 이는 학생들에게 더 나은 교육 환경을 제공하며, 취업 시에도 유리한 위치를 차지할 수 있습니다.
+따라서 성적 3.44로 동의대학교 간호학과에 지원하는 경우, 경쟁률과 함께 진로선택과목 성적 및 학생부 평가 등을 잘 준비해야 합니다. 더 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나, 직접 문의하시는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do
+이 링크를 통해 동의대학교 입학 관련 자료를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, "현재의 성적 2.52로는 간호학과에 최종 합격하기 어려울 것으로 보입니다."라는 주장은 원본 텍스트의 내용과 상충합니다. 원본에서는 2.52가 평균 등급보다 높다고 언급하고 있어, 합격 가능성이 높다고 했습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 2.52의 성적이 합격 가능성이 높다고 했으나, 생성된 응답에서는 합격하기 어려울 것이라고 주장하고 있습니다. 이로 인해 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 대한 추가 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 핵심 질문에 대한 직접적인 답변이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 합격 가능성에 대한 결론이 원본과 상충하여 일관된 메시지를 전달하지 못하고 있습니다. 따라서 점수는 3으로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 합격 가능성에 대한 주장이 원본과 다르기 때문에 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 문제가 있지만, 관련성과 유창성은 양호합니다. 따라서 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본의 의미와 다소 다르게 해석되고 있습니다. 특히 합격 가능성에 대한 주장이 원본과 상충하여 의미적으로 적절하지 않다고 판단되어 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 원본과 상충하여 혼란을 줄 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6180835971522942</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과에 대한 정보를 제공해 드리겠습니다.
+간호학과는 다음과 같은 특징을 가지고 있습니다:
+- 모집 인원: 15명
+- 지원 인원: 387명
+- 경쟁률: 약 25.80 (387/15)
+- 충원 합격 (후보순위): 14명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 296.00이고, 이는 현재 제시된 성적인 2.52보다 높습니다.
+따라서, 현재의 성적 2.52로는 간호학과에 최종 합격하기 어려울 것으로 보입니다. 하지만 정확한 판단을 위해서는 동의대학교에서 제공하는 최종 합격 점수를 확인해보시는 것이 좋습니다.
+더 자세한 정보나 추가 지원 방법이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 GPA와 관련된 정보를 제공하고 있으며, 3.7의 GPA로 합격하기 어려울 것이라는 주장을 하고 있습니다. 그러나 "간호학과의 평균 등급보다 낮은 성적"이라는 부분이 명확하게 언급되지 않아 약간의 모호함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 GPA에 대한 요구 사항을 언급하고 있습니다. 그러나 "특히 경쟁이 치열한 대학에서는 4.0 이상의 GPA가 필요할 수도 있다"는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 합격 가능성에 대한 여러 요소를 고려하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 따라서 일관성이 높습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있지만, 추가적인 정보가 포함되어 있어 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 불일치가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5641513719968743</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 GPA로 간호학과에 정시로 합격하기는 어렵다고 볼 수 있습니다. 간호학과는 보통 높은 GPA를 요구하며, 특히 경쟁이 치열한 대학에서는 4.0 이상의 GPA가 필요할 수도 있습니다.
+하지만, 정확한 합격 가능성을 판단하려면 다음과 같은 요소들을 고려해야 합니다:
+1. **학교와 전형별 평균 GPA**: 각 대학과 전형별로 평균 GPA를 확인해 보세요. 이 정보는 해당 대학의 입학처 웹사이트에서 찾을 수 있습니다.
+2. **추천서 및 자기소개서**: 좋은 추천서와 자기소개서가 합격에 큰 도움이 될 수 있습니다.
+3. **면접 성적**: 일부 전형에서는 면접 성적이 중요할 수 있으므로, 이 부분도 준비해 보세요.
+4. **추가 자격 요건**: 간호학과는 특정 자격 요건을 요구하기도 합니다 (예: 의료 관련 자원봉사 경력 등).
+5. **전형별 합격률**: 전형별로 합격률이 다르므로, 해당 전형의 합격률을 확인해 보세요.
+위와 같은 정보를 종합적으로 고려하여 결정하시길 바랍니다. 필요하다면 대학 입학처에 직접 문의하거나, 관련 컨설팅 서비스를 이용하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 표준 편차와 관련된 정보를 제공하지만, 원본 텍스트의 사실과는 상충합니다. 원본 텍스트는 2.58의 성적이 평균보다 높다고 명시하고 있으며, 합격 가능성이 높다고 언급하고 있습니다. 그러나 생성된 응답은 합격 가능성이 낮다고 주장하고 있어 사실적 일관성이 부족합니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 2.58의 성적이 평균보다 높다고 하였으나, 생성된 응답은 합격 가능성이 낮다고 주장하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 명확한 답변을 제공하지 않고 있습니다. 그러나 관련된 정보와 조언을 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 보입니다. 특히, 합격 가능성에 대한 결론이 원본 텍스트와 상충하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 원본 텍스트는 2.58의 성적이 평균보다 높다고 하였으나, 생성된 응답은 이를 반박하는 내용을 담고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소를 가지고 있지만, 사실성과 일관성에서 큰 결함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 주장을 하고 있어 의미적 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 다만, 일부 내용이 혼란을 줄 수 있는 점이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6192247428085409</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에 대한 정보를 바탕으로, 현재 제공된 데이터만으로는 정확한 결론을 내리기 어렵습니다. 하지만, 표준 편차가 2.74라는 점에서, 평균적인 지원자의 성적이 2.58인 경우 합격 가능성은 낮다고 볼 수 있습니다.
+표준 편차가 높다는 것은 지원자들의 성적 차이가 크다는 의미입니다. 따라서, 표준 편차가 큰 동의대학교 간호학과에서 평균적인 지원자의 성적이 2.58인 경우, 합격 가능성은 낮다고 추정할 수 있습니다.
+하지만, 이는 단순 추정일 뿐 실제 합격 여부는 모집단위별 경쟁률, 지원 인원 등 다양한 요소에 의해 결정됩니다. 따라서, 최종 합격 여부를 확인하려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확할 것입니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문하여 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 게임공학과의 예비 합격 가능성에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 제시하고 있습니다. 원본 텍스트에서 명시된 예비 7번의 상황에 대한 직접적인 언급이 없으며, 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보와 조언을 포함하고 있습니다. 예비 7번에 대한 가능성을 낮게 평가한 원본 텍스트와는 상반된 내용을 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 게임공학과에 대한 일반적인 정보와 조언을 제공하지만, 원본 텍스트의 핵심 질문인 예비 7번의 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조언을 포함하고 있지만, 원본 텍스트의 주제와 연결되는 흐름이 부족하여 일관된 논리적 구조가 결여되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 예비 7번의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트의 질문에 대한 명확한 답변이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6218482071386908</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보로는 게임공학과에 대한 모집 인원 및 전형 요소 등이 없습니다. 게임공학과의 경우, 해당 단과대학과 계열에 따른 정원 내외 모집인원을 확인해야 합니다.
+제가 보유한 데이터에서 게임공학과와 관련된 정보는 없지만, 일반적으로 학생부종합전형이나 수능 및 실기 전형 등으로 모집이 이루어질 가능성이 있습니다. 
+따라서 붙을 확률을 정확히 예측하기 위해서는 다음과 같은 절차를 따르시는 것이 좋습니다:
+1. **학과 홈페이지 확인**: 해당 학과의 공식 홈페이지에서 최신 정보를 확인하세요.
+2. **모집요강 확인**: 입학처나 대학 홈페이지에서 제공하는 모집요강을 확인하세요.
+3. **전형 요소 및 기준 이해**: 지원할 전형(예: 수능, 실기 등)의 전형 요소와 기준을 잘 이해하고 준비하세요.
+만약 추가 정보가 필요하다면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해 보시거나 학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 등급 4.16이 평균보다 낮다고 언급하고 있지만, 원본 텍스트에서는 4.16이 평균보다 높은 성적이라고 명시되어 있습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 4.16이 평균보다 높은 성적이라고 했으나, 생성된 응답에서는 낮다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 일부 내용은 원본 텍스트의 핵심 포인트에서 벗어나 있습니다. 예를 들어, 학생부 종합 평가와 면접 준비에 대한 언급은 관련성이 있지만, 원본 텍스트의 직접적인 질문에 대한 답변으로는 다소 벗어납니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있어 정확성 점수가 낮습니다. 4.16이 평균보다 낮다고 언급한 부분이 특히 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 원본과 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6879250202759233</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급을 가지고 동의대학교 게임공학과에 정시로 지원하는 경우, 현재 제공된 데이터만으로는 확정적으로 추가 합격이 가능한지 판단하기 어렵습니다. 
+게임공학과의 경우, 모집인원은 3명이고 지원 인원은 16명으로 경쟁률이 높습니다. 수능 등급 평균은 4.78이며, 표준 편차는 0.20입니다. 이 데이터를 바탕으로 볼 때, 4.16이라는 점수는 평균보다 낮기 때문에 추가 합격이 가능한지 확실하지 않습니다.
+추가 합격 가능성을 높이기 위해서는 다음과 같은 방법을 고려해볼 수 있습니다:
+1. **학생부 종합 평가**: 좋은 학생부 성적, 활동 기록 등을 통해 학생부 종합 평가에서 우수한 점수를 받는 것이 중요합니다.
+2. **면접 준비**: 면접에서도 지원 동기와 전공 적합성을 잘 표현하는 것이 필요합니다.
+또한, 정시 모집의 경우 각 대학이 제공하는 추가 합격 기회에 대한 정보가 필요하며, 이는 대학 홈페이지나 입학처에서 확인할 수 있습니다. 따라서, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입학처 웹사이트를 방문하여 정시 모집에 대한 자세한 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 합격 기준에 대한 명확한 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 등급과 합격 가능성에 대한 내용을 간과하고 있습니다. 그러나 성적 3.75가 최초합격자로 등록하는 것이 가능하다는 점은 맞습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경영정보학과의 평균 등급에 대한 언급이 없고, 합격 가능성에 대한 긍정적인 언급이 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 합격 기준에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 질문에 대한 답변이 잘 구성되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 합격 기준에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 사실과 일치하지 않는 부분이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 내용을 담고 있습니다. 그러나 원본 텍스트의 구체적인 정보와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 언어로 표현되어 있습니다. 다만, 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6621300345899508</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 기준을 정확히 알 수 없습니다. 경영정보학과의 정시 합격 기준 점수는 해당 대학교 웹사이트나 입학처에서 확인해야 합니다.
+추가적으로, 성적 3.75를 가지고 최초합격자로 등록하는 것은 가능하지만, 경쟁률이나 모집인원, 지원 인원 등을 고려하여 확실한 답변을 드리기 위해서는 더 많은 정보가 필요합니다.
+더 자세한 내용은 [입학 안내 웹사이트](http://ipsi.deu.ac.kr/main.do)를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성을 판단하기 위해 추가적인 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 성적에 대한 정보는 무시하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 경영정보학과의 평균 성적에 대한 정보와 관련하여 일관성이 부족합니다. 원본 텍스트의 결론과는 다르게 합격 가능성을 판단하기 어렵다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다. 
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해져서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 경영정보학과의 평균 성적에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으나, 원본의 핵심 사실을 간과하고 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 지침을 제공하고 있습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6178535056760821</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 경영정보학과의 정시 합격을 위해서는 해당 단과대학 및 모집단위의 최저 성적 기준, 지원 인원, 경쟁률 등을 고려해야 합니다.
+현재 제공된 정보에는 특정 단과대학 및 모집단위의 최저 성적 기준이 없습니다. 따라서 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **모집단위 확인**: 경영정보학과가 속한 단과대학과 모집단위를 확인합니다.
+2. **최저성적기준 확인**: 해당 단과대학 및 모집단위의 최저 성적 기준을 확인합니다.
+3. **경쟁률 확인**: 지원 인원과 모집인원, 경쟁률 등을 확인합니다.
+만약 특정 단과대학 및 모집단위의 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하여 해당 정보를 얻으시기 바랍니다. 
+또한, 제공된 성적 4.2는 평균 점수와 표준 편차 등을 고려할 때 어느 정도의 성적이냐에 따라 최저성적 기준을 충족하는지 판단이 달라질 수 있습니다. 따라서 정확한 정보를 얻기 위해서는 해당 단과대학 및 모집단위의 공식 웹사이트나 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 여러 요소를 언급하고 있으며, 원본 텍스트의 정보와 잘 연결되어 있습니다. 그러나 원본 텍스트에서 제시된 평균 등급에 대한 직접적인 언급이 부족하여 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 추가적인 정보를 제공하고 있으며, 전반적으로 일관성을 유지하고 있습니다. 다만, 원본 텍스트의 결론과는 약간의 차이가 있어 점수를 4로 평가했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 합격 가능성에 대한 다양한 요소를 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴져 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있어 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 원본 텍스트의 특정 수치에 대한 직접적인 언급이 부족하여 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선의 여지가 있어 점수를 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있어 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5752900781220187</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에 합격할 확률을 정확히 판단하기 어렵습니다. 동의대학교 경영정보학과의 경우, 지원자의 성적은 합격 가능성에 영향을 미치지만, 다른 여러 요소들도 고려됩니다.
+특히 다음과 같은 요인들이 중요합니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 이 값이 평균과 비교하여 어느 정도인지 확인해야 합니다.
+2. **영어 등급**: 동의대학교 경영정보학과의 경우, 영어 능력도 중요한 요소로 작용할 수 있습니다.
+3. **면접 성적**: 일부 대학에서는 면접 점수도 고려합니다.
+만약 제공된 정보에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균이 5.33보다 높다면, 경쟁률이 낮은 경우 합격 가능성은 높아질 것입니다.
+추가적으로, 동의대학교 경영정보학과의 정확한 모집인원, 지원 인원, 경쟁률 등을 확인하여 더 구체적인 판단을 내릴 수 있습니다. 만약 자세한 정보를 원하시면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋습니다.
+또한, 학교 관계자와 상담하거나, 입학처에 문의하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 관련된 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 정시 등급이 3.33일 경우 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 3.33의 성적이 매우 낮다고 주장하고 있습니다. 이는 사실과 상반되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 3.33의 성적이 합격 가능성이 높다고 했지만, 생성된 응답에서는 그 성적이 매우 낮다고 하여 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 정시 모집에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 질문인 3.33의 성적에 대한 합격 가능성에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 3.33의 성적에 대한 결론이 원본 텍스트와 일치하지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 3.33의 성적이 합격 가능성이 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 두드러지며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 의미와는 다소 어긋나는 부분이 있습니다. 특히, 성적에 대한 해석이 원본과 상충하여 의미 전달이 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 원본과 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7644561243651598</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 대한 정시 모집 정보를 확인해보겠습니다.
+바이오응용공학부는 2024학년도 정시모집군에서 "나군"으로 분류되어 있습니다. 이 전형에서는 주로 수능 점수와 학생부 교과 성적을 평가합니다. 
+주요 평가 요소:
+1. 수능 4개 영역 등급 (평균: 5.73, 표준 편차: 0.57)
+2. 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 (평균: 395.58, 표준 편차: 29.91)
+성적 평균이 3.33 정도라면, 이는 수능 4개 영역 등급에서 약 5등급을 의미합니다. 그리고 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합에서는 약 360-370 정도의 점수가 예상됩니다.
+이러한 성적은 바이오응용공학부에서 최초등록자로 선발될 확률이 매우 낮습니다. 대체적으로 경쟁률이 높고 평균 점수가 상당히 높기 때문입니다.
+따라서, 3.33 정도의 성적을 가진 학생은 바이오응용공학부에서 최초등록자로 선발될 확률이 매우 낮다고 볼 수 있습니다. 
+만약에 바이오응용공학부를 목표로 한다면, 더 높은 성적이 필요할 것 같습니다. 다른 전형이나 학과를 고려해보는 것도 좋은 방법일 수 있습니다.
+더 자세한 정보나 추가 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 관련된 내용을 포함하고 있지만, 4.4등급의 성적이 방사선학과에 지원하기에 적합한지에 대한 명확한 판단을 제공하지 않고 있습니다. 또한, 물리와 생물의 성적이 중요하다는 점은 언급되었으나, 구체적인 수치나 기준이 부족하여 다소 모호합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 성적 기준에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급과의 일관성이 부족합니다. 4.4등급이 평균보다 낮다는 점은 언급되었으나, 그에 대한 구체적인 설명이 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 여러 요소를 고려해야 한다는 점에서 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 방사선학과의 평균 등급과 관련된 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교했을 때 정확성이 떨어집니다. 특히, 4.4등급이 합격 가능성이 낮다는 점에 대한 명확한 근거가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하여 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 여러 요소를 고려하는 데 적절한 의미를 전달하고 있습니다. 그러나 원본 텍스트의 구체적인 정보와의 연결이 부족하여 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 내용이 모호하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6592084413163771</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4.4등급의 성적을 가지고 방사선학과에 지원하려면, 해당 학과의 모집요강을 확인해야 합니다. 방사선학과는 과학 분야를 강조하는 학과이므로, 물리와 생물 등 관련 과목의 성적이 중요할 것입니다.
+현재 제공된 정보만으로는 정확한 판단이 어렵습니다. 하지만 다음과 같은 점들을 고려해보세요:
+1. **국어, 수학, 영어** 등 기본 과목의 성적: 방사선학과는 이들 과목에서도 좋은 성적이 필요할 것입니다.
+2. **과학 분야의 성적**: 특히 물리와 생물의 성적이 중요합니다. 47점의 물리Ⅰ 성적은 괜찮지만, 방사선학과에서는 더 높은 점수를 요구하는 학교도 있을 수 있습니다.
+3. **학생부 교과성적**: 과학 분야에서 좋은 성적이 반영되어 있다면 이점이 유리할 것입니다.
+추가적으로, 방사선학과의 모집요강을 확인하고, 해당 학과의 과목별 평균 점수와 경쟁률 등을 참고해보세요. 필요하다면, 입학처나 학교 관계자에게 직접 문의하여 더 자세한 정보를 얻는 것이 좋습니다.
+더 궁금하신 사항이 있으시다면, https://ipsi. deu. ac. kr/main. do 에 접속해 보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 정보가 없다고 주장하지만, 원본 텍스트에는 방사선학과의 평균 등급과 합격 가능성에 대한 구체적인 정보가 포함되어 있습니다. 따라서, 사실적으로 부정확한 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 방사선학과에 대한 정보가 없다고 하여 일관성이 부족합니다. 원본 텍스트는 명확한 정보를 제공하고 있으므로, 생성된 응답은 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 추가 정보를 요청하는 내용이 포함되어 있지만, 원본 텍스트의 핵심 내용과는 다소 동떨어져 있습니다. 원본 텍스트의 정보에 대한 직접적인 언급이 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과에 대한 구체적인 정보를 무시하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 다르게 해석되고 있으며, 방사선학과에 대한 정보가 없다는 주장은 원본 텍스트의 내용을 반영하지 않습니다. 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.5890040595286388</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터는 방사선학과에 대한 정보가 없기 때문에, 정확한 답변을 드리기 어렵습니다. 방사선학과의 경쟁률이나 합격 점수 등의 정보가 필요합니다.
+만약 방사선학과의 관련 정보를 원하신다면, 해당 학과의 2024년도 모집단위와 지원 인원, 경쟁률 등을 확인해 보시는 것이 좋습니다. 이를 통해 현재의 상황을 판단할 수 있을 것입니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해보시거나, 대학 측에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.66의 성적이 합격 가능성에 영향을 미친다고 언급하고 있지만, 원본 텍스트에서 제시된 평균 성적 4.12와의 비교를 명확히 하지 않고 있습니다. 또한, 농어촌 전형의 특성에 대한 설명이 추가되었으나, 원본의 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 농어촌 전형의 세부 사항에 대한 추가적인 설명이 원본의 내용과 일관되지 않을 수 있습니다. 특히, 지원자의 자격 여부와 같은 요소가 강조되면서 원본의 긍정적인 요소가 약화되었습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격 가능성에 대한 질문에 대한 답변을 제공하고 있습니다. 그러나 원본의 구체적인 데이터와 비교하는 부분이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 3.66의 성적이 합격 가능성에 영향을 미친다고 하지만, 원본 텍스트의 평균 성적과의 비교가 부족하여 정확성이 떨어집니다. 또한, 농어촌 전형의 특성에 대한 설명이 원본과 다소 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용이 원본의 의도와 다르게 해석될 여지가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5650121128292197</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적은 경찰행정학전공 농어촌 전형에서 합격 가능성에 큰 영향을 미치지만, 결정적인 요인은 모집 단과대학 및 계열, 모집단위와 지원자의 자격 여부 등이 포함됩니다.
+현재 제공된 정보만으로는 정확한 판단이 어렵습니다. 그러나 일반적으로 농어촌 전형의 경우 학생부 성적 외에도 지역 거주 경력이나 특별한 활동 등의 요소가 고려되므로, 3.66의 성적만으로는 확실하게 합격할 수 없다고 판단됩니다.
+추천되는 조치는 다음과 같습니다:
+1. 지원 단과대학 및 계열, 모집단위와 관련된 자세한 정보를 확인합니다.
+2. 해당 전형에서 요구하는 서류들을 준비합니다.
+3. 학생부 성적 외에도 지역 거주 경력이나 특별 활동 등이 있는지 확인하고 이를 지원서에 포함시킵니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자 발표와 관련된 정보를 제공하지만, 원문에서 언급된 특정 학과 목록에 대한 언급이 없고, 예비 25번의 합격 가능성에 대한 구체적인 정보가 부족합니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 예비 25번의 합격 가능성에 대한 언급이 원문에서 제공하는 정보와 일관되지 않습니다. 원문은 특정 학과에 대한 합격 가능성을 강조하고 있으나, 생성된 응답은 일반적인 가능성에 대한 언급만 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 예비 합격자 발표와 관련된 정보도 포함되어 있습니다. 그러나 원문에서 제공하는 특정 학과 목록에 대한 언급이 없어서 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자 발표와 관련된 정보를 제공하지만, 원문에서 제공하는 특정 학과 목록에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원문과의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원문과의 연결성이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 지침을 제공합니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.594236773624583</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자 발표는 아직 최종 합격자가 결정되지 않은 상태입니다. 따라서 현재로서는 붙을 가능성이 있습니다. 하지만 경쟁률이 매우 높아서 최종 합격 확률은 낮을 수 있습니다.
+현재 상황에서는 다음과 같은 절차를 따르세요:
+1. **합격자 발표 일정 확인**: 2024년 2월 2일 금요일에 최초 합격자가 발표됩니다.
+2. **등록금 납부 및 등록**: 최종 합격자는 2024년 2월 7일부터 13일까지 등록금을 납부하고 등록해야 합니다.
+최종 합격 확률은 아직 결정되지 않았으므로, 기다리면서 준비를 계속하세요. 만약 최종 합격자가 발표된 후에도 붙지 않는다면, 다른 대안을 고려해보는 것도 좋습니다. 예를 들어 재응시를 계획하거나 다른 대학의 정시 모집에 지원하는 것을 생각해볼 수 있습니다.
+더 궁금한 점이 있다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 동의대학교에 법경찰행정학부가 존재하지 않는다는 사실을 무시하고, 해당 학부의 정시 모집 인원과 평균 성적에 대한 잘못된 정보를 제공하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 법경찰행정학부가 존재하지 않는다는 원본의 주장을 반박하는 내용이 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 동의대학교의 입학 관련 정보를 제공하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 원본 텍스트의 주제와 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 정확성 문제로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3  
+   - 응답의 구조는 비교적 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 사실과 크게 다르며, 법경찰행정학부의 존재 여부에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 전반적으로 사실성, 일관성, 정확성에서 심각한 문제를 가지고 있어 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 의미적으로는 일부 적절한 정보가 포함되어 있지만, 잘못된 전제에 기반하고 있어 전체적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 문장은 명확하게 작성되었으나, 잘못된 정보로 인해 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7196587154293411</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집인원은 40명입니다. 현재 제공된 정보를 바탕으로 추정해보면, 평균 성적이 90점 이상 받으면 안정권에 들어갈 수 있을 것으로 예상됩니다.
+하지만 이는 추정치이며, 실제 입학 경쟁률과 합격선은 정시 모집일 때 발표되는 최종 합격선을 참고해야 합니다. 따라서 정확한 합격 기준 점수를 알고 싶다면, 동의대학교 입학처 웹사이트나 2024년 정시 모집 공고를 확인하시거나, 입학처에 직접 문의하시는 것이 가장 정확합니다.
+입학 관련 자세한 정보는 https://ipsi. deu.ac.kr/main.do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 입학 기준에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 아동학과의 평균 등급에 대한 정보와 관련하여 명확한 연결이 부족합니다. 따라서 일부 사실이 누락되거나 불명확하게 표현되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 보육가정상담학과와 아동학과의 관계에 대한 명확한 설명이 부족하여 일관성이 떨어집니다. 두 학과의 입학 기준에 대한 비교가 명확하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 입학 기준에 대한 정보를 제공하여 관련성을 유지하고 있지만, 아동학과의 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 전체적인 논리적 흐름이 다소 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 입학 기준에 대한 정보를 제공하지만, 원본 텍스트의 아동학과 평균 등급과의 관계를 명확히 하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 특정 세부사항을 충분히 반영하지 못하여 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6673890857884547</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 정확한 판단을 내리기 어렵습니다. 정시 산출 등급이 5.33인 경우, 동의대학교 보육가정상담학과의 입학 기준을 확인해야 합니다.
+보육가정상담학과의 입학 기준은 다음과 같은 정보를 통해 알 수 있습니다:
+- 모집 인원
+- 지원 인원
+- 경쟁률
+- 충원 합격 (후보순위)
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 및 표준 편차
+이 정보를 바탕으로, 보육가정상담학과의 입학 기준을 확인하고, 제공된 등급 5.33이 해당 기준에 미치는지 판단해야 합니다.
+만약 구체적인 데이터를 가지고 있지 않다면, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 최신 정보를 확인하거나, 학교 관계자에게 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성이 낮다고 언급하고 있지만, 원본 텍스트에서는 예비 번호가 12번일 경우 합격 가능성이 아예 없는 것은 아니라고 명시하고 있습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 예비 12번의 합격 가능성에 대한 해석이 다릅니다. 원본 텍스트는 가능성이 있다고 언급하는 반면, 생성된 응답은 가능성이 매우 낮다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 예비 12번에 대한 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성에 대한 정보가 원본 텍스트와 다르게 해석되어 있어 정확성이 떨어집니다. 원본 텍스트는 가능성이 있다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 예비 12번의 합격 가능성에 대한 해석이 다르기 때문에 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7117707968616127</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받았다면, 합격 가능성은 매우 낮습니다. 일반적으로 충원 합격자는 최대 선발 가능 인원 내에서 선정되며, 예비 순위가 높을수록 합격 확률이 낮아집니다.
+현재 제공된 정보로는 정확한 답변을 드리기 어렵습니다. 하지만 일반적인 경우라면 12번의 예비 순위에서는 합격하기 어려울 것으로 보입니다. 
+더 자세한 정보를 얻으시려면, 동의대학교 입학관리팀에 직접 문의하시거나, 해당 대학의 홈페이지에서 최신 정보를 확인하시는 것이 좋습니다.
+자세한 내용은 [입학안내 홈페이지](http://ipsi. deu. ac. kr)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 경쟁률과 입학정원에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 유아교육학과의 평균 성적(4.18)과 관련된 정보는 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성을 언급하지만, 원본 텍스트에서 제시된 4.75 성적이 유아교육학과에 지원하기 어려운 이유와 일치하지 않습니다. 경쟁률과 입학정원에 대한 정보는 있지만, 평균 성적에 대한 언급이 없어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변으로 유아교육학과에 대한 정보를 제공하고 있으며, 관련된 추가 요소들(서류평가, 면접 등)을 언급하고 있습니다. 그러나 원본 텍스트의 주요 내용인 평균 성적에 대한 정보가 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 평균 성적에 대한 언급이 없어서 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 입학정원과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 성적에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 유아교육학과에 대한 정보가 적절하게 전달되고 있습니다. 그러나 평균 성적에 대한 언급이 없어서 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7251721935885019</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 정시에 지원하는 것은 가능합니다만, 유아교육학과의 경우 입학정원이 많지 않고 경쟁률이 높기 때문에 4.75로는 어려울 수 있습니다.
+유아교육학과의 모집인원은 다음과 같습니다:
+- 인문사회과학대학 유아교육학과: 20명
+이는 전체 지원자 중에서 상당히 적은 수를 선발하는 것을 의미합니다. 따라서, 4.75라는 성적을 가지고 유아교육학과에 지원하려면 추가적인 요소들이 중요하게 작용할 것입니다.
+추가적으로 고려해야 할 요인들:
+1. **서류평가**: 학교생활기록부와 면접에서의 성적 및 역량 평가.
+2. **면접**: 지원동기에 대한 설명, 학업계획, 전공적합성 등에 대한 답변.
+3. **추천서**: 교사나 학교 관계자로부터 받은 추천서.
+따라서, 4.75라는 성적을 가지고 유아교육학과에 지원하려면 서류평가와 면접에서 좋은 평가를 받아야 합니다. 자세한 정보는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 평균 등급과 경쟁률에 대한 정보를 제공하고 있으며, 원본 텍스트의 내용을 대체로 잘 반영하고 있습니다. 그러나 일부 세부사항이 원본 텍스트와 다를 수 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 세부정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 평균 등급과 관련된 정보가 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 보육가정상담학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 정보가 잘 연결되어 있습니다. 그러나 일부 부분에서 정보의 전개가 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 잘 반영하고 있으나, 일부 수치나 정보가 다를 수 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 세부사항에서의 불일치로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 다만, 일부 추가 정보가 원본의 맥락과 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6100256537019769</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16이라는 환산 등급을 가지고 보육가정상담학과의 일반학생전형에 지원하려고 한다면, 합격 가능성은 어느 정도일까를 판단하기 위해서는 해당 모집단위의 평균 등급과 경쟁률 등을 고려해야 합니다.
+보육가정상담학과의 일반학생전형에 대한 정보를 확인해 보겠습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 301.54
+  - 표준 편차: 8.67
+- **영어 등급**:
+  - 평균: 3.92
+  - 표준 편차: 0.85
+- **수능 4개 영역 등급**:
+  - 평균: 4.71
+  - 표준 편차: 0.26
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 398.54
+  - 표준 편차: 17.60
+이 정보를 바탕으로 판단해보겠습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 
+  - 평균은 301.54이고, 표준 편차는 8.67입니다.
+  - 4.16이라는 환산 등급을 가정하면, 이는 표준 변환 점수로 약 320-330 사이의 점수가 됩니다.
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+  - 평균은 398.54이고, 표준 편차는 17.60입니다.
+  - 이 환산 등급을 가정하면, 이는 표준 변환 점수로 약 420-430 사이의 점수가 됩니다.
+이러한 정보를 바탕으로 판단해보면:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 
+  - 현재 환산 등급 4.16은 평균보다 약간 높으나, 표준 편차를 고려하면 안정적인 범위에 속합니다.
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 
+  - 현재 환산 등급 4.16은 평균보다 약간 낮으나, 표준 편차를 고려하면 안정적인 범위에 속합니다.
+따라서, **경쟁률**을 고려할 때:
+- 보육가정상담학과의 경쟁률이 1.73 (충원 합격자: 지원자 비율) 이므로, 현재 환산 등급으로는 충분히 합격 가능성이 높습니다.
+하지만, 최종 결정을 내리기 위해서는:
+- **최종 등록 시점까지의 경쟁률 변화**를 고려해야 합니다.
+- **모집 인원과 지원 인원**의 변화를 주시해야 합니다.
+따라서, 현재 환산 등급으로는 보육가정상담학과 일반학생전형에 충분히 합격할 가능성이 높습니다. 하지만 최종 결정을 내리기 위해서는 추가적인 정보와 경쟁률 변화 등을 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 소프트웨어공학부에 대한 정보와 지원 조건을 제시하고 있지만, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 정시 지원이 불가능하다고 명시했으나, 생성된 응답에서는 정시 지원을 위한 조건을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 주제와도 맞지 않습니다. 원문이 정시 지원 불가능성을 언급하는 반면, 생성된 응답은 정시 지원 조건에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 소프트웨어융합학과의 정시 지원 불가능성을 무시하고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4260549249911616</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 정시로 지원하려면, 평균적으로 영어 등급이 3.77 정도 받아야 합니다. 이는 제공된 데이터에서 해당 학과의 지원자의 영어 평균 등급을 기준으로 추정한 것입니다.
+추가적으로, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다. 이 역시 지원자의 성적을 고려하여 정시로 들어갈 수 있는 기준을 추정한 것입니다.
+따라서, 소프트웨어공학부를 정시로 지원하려면 영어 등급이 3.77 이상이고, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합이 317.87 이상인 성적을 받아야 합니다.
+만약 더 자세한 정보나 추가적인 질문이 있으시다면, "https://ipsi.deu.ac.kr/main. do"를 참조하시거나 관계된 부서에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비에 대한 구체적인 내용을 제공하고 있으며, 서류 평가의 기준에 대해서도 언급하고 있습니다. 그러나 원문에서 명시된 "학생부 교과성적"에 대한 언급이 부족하여 완전한 사실성을 반영하지는 못하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 면접 준비와 서류 평가에 대한 정보를 제공합니다. 다만, 학생부 교과성적에 대한 언급이 부족하여 약간의 일관성 결여가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련된 정보를 잘 다루고 있으며, 면접 준비와 서류 평가에 대한 구체적인 조언을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확하지만, 학생부 교과성적에 대한 언급이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보이지만, 학생부 교과성적에 대한 정보가 부족하여 약간의 점수를 잃었습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4223725351589363</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>면접에서는 지원동기와 학업계획, 학업역량, 전공적합성 등에 대한 질문이 주어집니다. 따라서 면접 준비 시에는 다음과 같은 내용을 세부적으로 준비해보시는 것이 좋습니다:
+1. **지원동기 및 학업계획**: 지원 동기에 대해 명확하게 설명하고, 입학 후 어떤 학업 계획을 가지고 있는지 구체적으로 나열합니다.
+2. **학업역량**: 고교 생활 중 학업에 대한 어려움과 이를 해결하기 위한 노력에 대해 이야기합니다.
+3. **전공적합성**: 지원 전공(계열)과 관련된 교내 활동을 설명하며, 이와 관련된 경험과 열정을 강조합니다.
+따라서 면접 준비 시에는 위의 세부 내용을 중심으로 자신의 경험과 생각을 정리해보시는 것이 좋습니다. 또한, 서류 평가에서는 학교생활기록부를 기반으로 공동체역량, 학업역량, 전공적합성 등에 대한 평가가 이루어집니다.
+따로 준비해야 하는 추가적인 서류는 없습니다. 단, 면접 시에는 교복 착용 금지와 개인 신상 노출 금지를 준수해야 합니다. 또한, 블라인드 면접이므로 수험번호, 성명, 출신 고교, 부모 직업 등 개인 정보를 공개하지 않도록 주의하시기 바랍니다.
+더 궁금한 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주요 사실을 잘 반영하고 있습니다. 그러나 "정확한 합격 기준 점수와 지원자들의 경쟁률"을 확인해야 한다는 점에서 원본 텍스트의 내용을 완전히 대체하지는 못합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성을 유지하고 있으며, 최초합격 가능성에 대한 언급이 원본의 내용과 잘 연결되어 있습니다. 다만, 일부 추가 정보가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 정보가 잘 연결되어 있습니다. 그러나 약간의 추가 정보가 포함되어 있어 완전한 일관성은 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정확한 정보를 제공합니다. 그러나 일부 세부사항이 누락되어 있어 완전한 정확성은 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다. 그러나 약간의 추가 정보가 포함되어 있어 완전한 적합성은 다소 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7290236753524675</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 소프트웨어공학부의 최초합격 가능성 판단이 어렵습니다. 동의대학교 소프트웨어공학부에 대한 정확한 합격 기준 점수와 지원자들의 경쟁률 등을 확인해야 합니다.
+특히, 동의대학교 소프트웨어공학부는 인문사회과학대학에 속해 있으며, 해당 대학과 모집단위별로 지원자의 수와 경쟁률이 다르므로 정확한 정보를 얻기 위해서는 다음과 같은 웹사이트를 참조하거나 학교 관계자에게 문의하는 것이 좋습니다.
+[https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)
+또한, 동의대학교 소프트웨어공학부의 최초합격 기준 점수와 지원자의 경쟁률 등을 확인할 수 있는 공식 웹사이트나 학교 입학처에 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고, 대신 소프트웨어공학부의 영어 등급 평균과 표준 편차에 대한 정보를 언급하고 있습니다. 이는 원본 텍스트와 관련이 없으며, 잘못된 정보로 간주됩니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부의 정보를 제공하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적고, 소프트웨어융합학과에 대한 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6087987865673667</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부에서 영어 등급의 평균이 3.77이며, 표준 편차가 0.67입니다. 이 정보만으로는 정확한 경쟁률을 예측하기 어렵습니다. 하지만 평균 5등급의 지원자가 많아서 경쟁률이 높을 가능성이 있습니다.
+평균 5등급으로 지원하려면, 다른 영역에서도 좋은 성적을 받은 지원자들이 많기 때문에 경쟁력이 약간 떨어질 수 있습니다. 그러나 이는 단순 평균만으로 판단하기에는 한계가 있어, 전체적인 합격 점수와 경쟁률을 고려해야 합니다.
+더 정확한 정보를 얻으시려면, 해당 대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하시거나, 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "4.29보다 약간 낮습니다"라는 부분은 사실과 다릅니다. 원본 텍스트에 따르면 귀하의 성적 4.28은 최초합격자와 최종등록자의 평균 등급보다 높다고 명시되어 있습니다. 따라서 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 특히, 성적 비교에서 잘못된 해석이 이루어졌고, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용을 잘못 해석하여 관련성이 다소 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 특히 성적 비교에서 부정확한 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 발생하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6075053164137983</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수는 동의대학교 신소재공학부의 수능 4개 영역 등급 평균인 4.29보다 약간 낮습니다. 하지만 표준 편차가 0.16이므로, 이 정도 차이는 큰 영향을 미치지 않을 가능성이 있습니다.
+하지만 정확한 합격 가능성은 동의대학교 신소재공학부의 경쟁률과 지원 인원 등을 고려해야 합니다. 현재 제공된 데이터는 해당 정보를 포함하고 있지 않으므로, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 최신 정보를 확인하시기 바랍니다.
+또한, 학생부 교과 성적, 실기/실적 등 다른 평가 요소들도 고려되기 때문에, 단순 점수만으로는 정확한 판단이 어렵습니다. 전체적인 지원 자격과 경쟁률 등을 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보가 잘못 전달되고 있습니다. 원문에서는 자기소개서가 필요 없다고 명확히 언급하고 있지만, 생성된 응답에서는 일반적으로 필요하지 않다고 하면서 특정 학교나 전공에 따라 다를 수 있다고 설명하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있지만, 생성된 응답은 조건부로 필요할 수 있다고 언급하여 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 불필요한 추가 정보가 포함되어 있어 원문에서 요구하는 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 관계에서 일관성이 떨어지기 때문에 점수가 낮아졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있지만, 생성된 응답은 그렇지 않다고 주장합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 떨어지며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 원문의 맥락을 벗어난 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 한국어 사용자에게는 중국어로 작성되어 있어 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.419877508669935</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的的学生选拔通常不需要提交个人陈述书（自我介绍）。但是，如果学校特别要求或某些专业需要通过个人陈述来了解申请者的情况，则可能需要准备。根据您提供的信息，东义大学的普通学生入学考试类型中，并没有明确提到需要提交个人陈述书。
+如果您不确定是否需要提交个人陈述书，建议直接访问东义大学的官方网站（https://ipsi. deu. ac. kr/main. do）查看最新的招生简章或联系学校的招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 일반적인 해석과 추가 모집에 대한 정보를 제공하고 있으며, 대체로 정확하지만 일부 세부사항에서 원문과의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 정보와 일치하는 부분이 있지만, 추가 모집에 대한 설명에서 원문과의 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 정보를 잘 연결하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제 간의 연결이 명확합니다. 그러나 일부 부분에서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 특정 세부사항에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6430130458756543</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 좋은 성적입니다. 하지만 추가모집에 들어가는 것은 여러 요소가 작용하기 때문에 확실하게 예측하기 어렵습니다.
+다군 수능 정시 모집의 경우, 학생부교과와 면접을 포함한 총합 점수가 결정되는데, 이 중 수능 성적이 큰 비중을 차지합니다. 4.5라는 점수는 수능 영어 등급에 해당하는 점수입니다 (4등급).
+추가모집의 경우, 일반적으로 정시 모집과 동일한 기준이 적용되지만, 추가모집은 정원 외로 진행되기 때문에 경쟁률이 높을 수 있습니다. 따라서 4.5라는 성적만으로는 확실하게 들어갈 수 있는 보장은 없습니다.
+추가모집에 들어가는 방법은 다음과 같습니다:
+1. 학생부 교과성적이 우수한 경우
+2. 면접에서 좋은 평가를 받은 경우
+3. 특별한 경력이나 활동이 있는 경우
+따라서, 추가모집에 들어갈 수 있을지 확실하게 예측하기 위해서는:
+- 현재의 학생부 교과 성적을 확인하고 우수한 점수인지 확인하세요.
+- 면접에서 좋은 평가를 받았는지 확인하세요.
+- 특별한 경력이나 활동이 있는지 확인하세요.
+위와 같은 요소들을 종합적으로 고려하여 결정하시면 좋을 것 같습니다. 추가로 궁금한 점이 있다면, https://ipsi. deu.ac.kr/main.do 를 참조해보시거나 대학에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급에 대한 정보를 제공하지 않고, 대신 일반적인 기준을 제시하고 있습니다. 이는 원본 텍스트의 구체적인 사실을 반영하지 않으므로 점수를 낮게 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 구체적인 등급 기준을 제시하지 않고 일반적인 예상을 언급하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있지만, 원본 텍스트의 구체적인 데이터와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치와 사실을 반영하지 않고, 일반적인 기준을 제시하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많아 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트의 구체적인 내용을 반영하지 않아 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 다만, 원본 텍스트와의 연결이 약간 부족하여 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.7706063772653553</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학과의 정시 모집에 대한 등급 기준을 직접 확인할 수 없습니다. 정확한 등급 기준은 대학 입학처 웹사이트나 공식 안내서를 통해 확인해야 합니다.
+추가적으로, 일반적으로 신소재공학과는 높은 경쟁률을 보이는 학과 중 하나이므로, 4.5 이상의 영어 등급과 수능 4개 영역 평균 5.7 이상 등의 기준을 충족해야 할 것으로 예상됩니다.
+자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 방문하여 확인하시거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점과 귀하의 점수인 447점을 언급하지 않고, 2024년의 평균 점수인 446.69점을 제시하고 있습니다. 이는 사실과 다르며, 작년의 평균 점수와 비교하는 데 있어 정확한 정보를 제공하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수와 귀하의 점수를 비교하는 대신 2024년의 평균 점수를 언급하고 있습니다. 이는 원본 텍스트와 일관성이 부족하며, 정보의 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞춰 신소재공학과에 합격할 가능성에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 작년 평균 점수와의 비교가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 여러 요인을 고려해야 한다는 점을 명확히 하고 있습니다. 그러나 원본 텍스트와의 연결이 약해 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2024년의 평균 점수를 언급하고 있지만, 작년 신소재공학과의 평균 점수와의 비교가 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 비교가 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 합격 가능성에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보와의 연결이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6464413227379835</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024년 동아대학교의 정시 모집에서 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균이 446.69점으로, 작년에 비해 약간 낮은 수치입니다. 작년에는 해당 단과대학의 모집단위에서 표준 변환 점수가 447점 정도였습니다.
+현재 제공된 정보만으로는 작년과 비교하여 동일한 점수를 받더라도 충분히 가능성이 있다고 볼 수 있습니다. 하지만 정확한 확률을 예측하기 위해서는 여러 요인들을 고려해야 합니다:
+1. **경쟁률**: 작년의 경쟁률이 현재와 어떻게 다른지 확인해야 합니다.
+2. **모집 인원 및 지원 인원**: 작년과 비교하여 모집 인원이나 지원 인원이 얼마나 달라졌는지 파악해야 합니다.
+3. **개별 단과대학/단위 별 평균 점수**: 특정 단과대학 또는 단위별로 표준 변환 점수가 어떻게 분포되어 있는지를 확인해야 합니다.
+따라서, 작년에 비해 동일한 점수를 받더라도 충분히 가능성이 있지만, 확실한 확률을 예측하기 위해서는 더 많은 정보와 데이터를 바탕으로 분석이 필요합니다. 만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 웹사이트에서 최신 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 일반학생전형에 대한 정보와 지원 가능성에 대한 설명을 포함하고 있으며, 원본 텍스트의 주요 사실을 잘 반영하고 있습니다. 그러나 "4.3 등급의 성적이 4.1~4.2 정도로 변환된다면"이라는 부분은 다소 모호하게 표현되어 있어, 정확한 성적 변환에 대한 정보가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 신소재공학부의 평균 성적과 지원 가능성에 대한 설명이 잘 연결되어 있습니다. 다만, "4.3 등급의 성적"이라는 언급이 원본 텍스트의 성적 범위와 다소 차이가 있어 약간의 일관성 문제를 보입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학부의 지원 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 신소재공학부의 평균 성적과 지원 가능성에 대한 설명이 정확합니다. 그러나 성적 변환에 대한 부분에서 약간의 불확실성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 성적 변환에 대한 설명이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 더 명확한 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5634160437242264</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2 정도로 변환된다면, 신소재공학부의 일반학생전형에 지원 가능성이 있습니다. 그러나 실제로 붙을 수 있는지는 여러 요인에 따라 달라집니다.
+신소재공학부의 일반학생전형은 주로 수능 성적과 학생부 종합 평가를 기반으로 합니다. 따라서 변환된 성적이 좋은 점수일 경우, 지원 가능성이 높아지지만, 다른 지원자들의 성적과 학생부 종합 평가 등 다양한 요인을 고려해야 합니다.
+추천드리면:
+1. **변환된 성적 확인**: 정확한 변환된 성적을 확인하고, 해당 대학의 일반학생전형 기준을 참조하세요.
+2. **학생부 종합 평가**: 학생부 종합 평가에서도 좋은 점수를 받았다면 지원 가능성이 높아집니다.
+3. **면접 준비**: 필요하다면 면접 준비도 철저히 하세요.
+더 자세한 정보나 도움이 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 많은 정보를 얻으실 수 있습니다.
+만약 추가적인 도움이 필요하시다면 언제든지 다시 질문해주세요!</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하지만, 구체적인 성적 데이터(예: 평균 점수, 표준 편차 등)를 포함하지 않고 있습니다. 또한, 수능 점수가 30% 반영된다는 정보는 원본 텍스트에 명시되어 있지 않으므로, 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 점수 반영 비율과 같은 추가적인 정보는 원본에 없으므로 일관성이 떨어집니다. 또한, 특정 점수 예시(국어 30점, 수학 120점, 영어 95점)는 원본 텍스트에 명시된 내용과 일치하지 않으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 지원하기 위한 성적 요건에 대한 정보를 제공하므로 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 데이터와 비교할 때, 일부 정보가 부족하여 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 성적 데이터와 비교할 때 정확성이 떨어집니다. 특히, 수능 점수 반영 비율과 특정 점수 예시는 원본에 명시된 내용과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성, 일관성, 정확성에서 부족한 점이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 정보가 원본과 다르게 해석될 수 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7682674584519722</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과에 지원하려면, 수능(일반학생전형)에서 좋은 성적이 필요합니다. 해당 학과는 나군 수능(일반학생전형)에서 수능 점수가 30% 반영됩니다.
+나군 수능(일반학생전형)에서는 다음과 같은 과목의 성적을 고려해야 합니다:
+- 국어
+- 수학
+- 영어
+특히, 인공지능 관련 학과인 경우, 수학과 영어의 성적이 중요할 것입니다. 예를 들어, 국어는 30점, 수학은 120점, 영어는 95점 정도가 필요할 수 있습니다 (이 점수는 참고용이며, 실제 합격 기준 점수는 동의대학교에서 발표하는 최종 합격자 성적을 확인해야 합니다).
+따라서, 인공지능학과에 지원하려면, 국어, 수학, 영어 등 주요 과목에서 좋은 성적이 필요합니다. 실제 합격 기준 점수는 동의대학교 입학처 웹사이트나 공식 발표 자료를 통해 확인하시기 바랍니다.
+더 궁금한 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 5.27의 성적이 충원 합격 가능성이 있는지에 대한 정보를 제공하고 있으며, 각 단과대학의 평균 성적과 비교하여 설명하고 있습니다. 그러나 일부 세부 사항이 원본 텍스트와 다를 수 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 일부 내용에서 다소 모호하거나 일관성이 떨어지는 부분이 있습니다. 예를 들어, 특정 학과의 평균 성적에 대한 언급이 원본과 다를 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 5.27의 성적이 충원 합격 가능성에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단과대학에 대한 설명이 명확하게 이어집니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 특정 세부 사항에서 정확성이 떨어질 수 있습니다. 예를 들어, 평균 성적의 범위에 대한 설명이 원본과 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.621523427405751</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 4개 영역 등급 평균치와 비슷하거나 약간 높은 범위에 속합니다. 각 단과대학 및 모집단위별로 표준 변환 점수 합의 평균치와 비교해보면 다음과 같은 추정이 가능합니다:
+- **인문사회과학대학**: 대부분의 단과대학에서 4개 영역 등급 평균치는 4.82~5.08 사이입니다. 따라서 5.27은 경쟁률이 높지 않은 모집단위에서는 충분히 추합 가능한 점수일 수 있습니다.
+- **상경대학**: 금융경영학과와 재무부동산학과의 경우, 평균치는 5.41~5.82 사이입니다. 따라서 5.27은 이들 단과대학에서는 약간 낮은 점수로 추합 가능성은 있으나 경쟁률이 높아서 확실한 것은 아닙니다.
+따라서, 5.27이라는 점수는 경쟁률이 낮은 모집단위에서는 충분히 추합 가능한 점수일 수 있습니다만, 경쟁률이 높은 단과대학이나 모집단위에서는 약간 낮은 점수로 판단될 수 있습니다. 
+확실한 결과를 얻기 위해서는 각 단과대학 및 모집단위별 평균치와 표준 편차를 고려하여 분석하는 것이 좋습니다. 더 자세한 정보나 특정 단과대학/모집단위에 대한 추정을 원하시면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 제공하지 않고, 일반적인 조언을 제시하고 있습니다. 원본 텍스트의 구체적인 데이터와 비교할 때, 일부 사실이 누락되어 있으며, 합격 가능성에 대한 명확한 판단을 제공하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 4.2의 성적이 평균보다 높다고 명시하고 있지만, 생성된 응답은 경쟁률이 높은 학과에서는 낮은 확률로 합격할 수 있다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 구체적인 데이터에 대한 언급이 부족하여 다소 일반적인 정보로 한정됩니다. 그러나 여전히 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 합격 가능성에 대한 판단이 모호합니다. 원본 텍스트의 데이터와 비교할 때 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 구체적인 사실을 반영하지 못하고 있습니다. 전반적으로 보았을 때, 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 내용과는 다소 거리가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6668061240775112</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어공학부에 대한 정확한 지원 자격과 경쟁률, 평균 점수 등 정보가 제공되지 않았습니다. 그러나 일반적으로 정시 모집에서 성적 평균이 4.2인 경우, 경쟁률이 높은 학과에서는 낮은 확률로 합격할 수 있습니다.
+정확한 합격 가능성 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. 소프트웨어공학부의 정시 모집 평균 점수와 경쟁률
+2. 지원 자격 조건 (예: 고교 유형, 전형 등)
+3. 동의대학교의 전체적인 합격 기준
+위 정보를 바탕으로 판단해야 합니다. 만약 더 구체적인 정보가 필요하다면, 동의대학교의 입학처 웹사이트나 "https://ipsi. deu. ac. kr/main. do" 링크에서 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.92라는 성적이 화학환경공학부의 일반 학생 전형에서 지원 가능한지에 대한 질문에 답하고 있지만, 원본 텍스트에서 제공된 정보와는 다소 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 3.92가 평균 등급보다 높은 성적이라고 언급하고 있으며, 합격 가능성이 높다고 명시하고 있습니다. 그러나 생성된 응답은 지원이 불가능할 것이라고 주장하고 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3.92가 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 그와 반대되는 주장을 하고 있습니다. 이러한 불일치는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 화학환경공학부의 전형에 대한 정보를 포함하고 있습니다. 그러나 원본 텍스트의 주요 내용과는 약간의 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 응답의 각 부분이 서로 잘 연결되어 있지 않은 느낌이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 3.92라는 성적에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으며, 전반적으로 적절한 의미를 가지고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 다만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7446557722493835</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적이 화학환경공학부의 경우 일반 학생 전형에서 지원 가능한 점수인가요?
+화학환경공학부는 나군에 속하며, 나군의 경우 수능과 실기/실적을 기반으로 지원이 가능합니다. 하지만 정확한 성적 기준은 동의대학교의 공식 입시 안내를 확인해야 합니다.
+현재 제공된 정보로는 화학환경공학부의 나군 전형에서 3.92라는 점수만으로는 지원이 불가능할 것으로 보입니다. 일반 학생전형에서는 수능 점수가 필수적으로 반영되므로, 수능 점수와 함께 성적을 확인해보시기 바랍니다.
+더 자세한 정보를 얻으려면 동의대학교의 공식 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 4.25라는 점수를 과학 영역 등급으로 잘못 해석하고 있으며, 동의대학교 화학환경공학부의 합격 가능성에 대한 판단이 원본 텍스트의 정보와 일치하지 않습니다. 원본 텍스트는 4.25가 최초합격자의 평균보다 높다고 판단했으나, 생성된 응답은 이를 반박하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.25가 합격 가능성이 높다고 판단했지만, 생성된 응답은 이 점수가 부족하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부에 대한 정보를 제공하고 있으나, 주제와 관련이 적은 일본학과의 예를 들어 설명하고 있어 다소 주제에서 벗어난 느낌을 줍니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관성이 떨어지는 부분이 있습니다. 특히 일본학과의 예시가 갑작스럽게 등장하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 4.25라는 점수에 대한 해석이 잘못되었으며, 합격 가능성에 대한 판단이 원본과 상반됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 정보의 정확성 및 일관성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 일부 내용이 혼란스러울 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6420753204409604</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 과학 영역 등급을 평균화한 값입니다. 동의대학교 화학환경공학부의 경우, 지원자의 과학 영역 성적에 큰 중요성이 부여됩니다.
+"인문사회과학대학"에서 "일본학과"를 예로 들어보겠습니다. 해당 학과의 수능 4개 영역 등급 평균은 4.87이고, 표준 편차는 0.13입니다. 이 값들은 동의대학교 전체의 수능 성적 분포를 나타내는데, 평균이 높고 표준 편차가 낮다는 것은 해당 학과의 수험생들이 비교적 일관된 성적을 보여주고 있다는 것을 의미합니다.
+4.25라는 점수는 평균 4.87보다 약간 낮습니다. 그러나, 표준 편차가 0.13이라는 것은 이 값이 상대적으로 높은 수준의 일관성과 집중성을 가진 학과의 성적 분포를 나타냅니다.
+따라서, 4.25라는 점수는 동의대학교 화학환경공학부에 합격하기에는 약간 부족할 수 있습니다. 하지만, 이 점수만으로 결정을 내리기는 어렵습니다. 지원자의 다른 성적(국어, 수학 등)과 학생부 교과성적, 실기/실적 등의 요소를 고려해야 합니다.
+결론적으로, 4.25라는 점수로는 확정적으로 합격할 수 없다고 판단됩니다. 하지만, 다른 성적이 높다면 합격 가능성은 있습니다. 정확한 합격 가능성을 확인하려면 동의대학교의 최종 합격 기준을 확인하거나, 해당 대학에 문의하는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 영화학과의 평균 변환 점수와 표준 편차를 정확하게 반영하고 있으며, 4.2라는 점수가 합격 가능성이 높다는 점도 올바르게 언급하고 있습니다. 그러나 지원 인원과 모집 인원 비율에 대한 정보는 원문에 명시되어 있지 않으므로, 이 부분은 다소 불확실합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 정보를 제공하고 있으며, 4.2라는 점수에 대한 해석도 원문과 일치합니다. 다만, 지원 인원과 모집 인원 비율에 대한 추가 정보는 원문에 포함되어 있지 않아 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 정보와 관련이 깊으며, 질문자의 성적에 대한 합격 가능성을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 다만, 지원 인원과 모집 인원 비율에 대한 언급이 원문에 없기 때문에 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보가 정확하지만, 지원 인원과 모집 인원 비율에 대한 정보는 원문에 명시되어 있지 않아 정확성에 약간의 의문이 생깁니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 질문자의 상황에 적절한 정보를 제공합니다. 그러나 일부 추가 정보는 원문에 없기 때문에 약간의 부적절함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6696392799166331</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상대적으로 높은 점수입니다. 영화학과의 평균 변환 점수가 404.43점으로, 표준 편차가 27.09점이라는 것을 고려하면, 4.2정도의 성적은 합격 가능성이 높습니다.
+하지만 정확한 합격 여부는 여러 요소에 따라 달라질 수 있습니다:
+1. 지원 인원과 모집 인원 비율: 영화학과에서는 5명을 모집하고, 11명이 지원하여 경쟁률이 2.20입니다.
+2. 다른 지원자의 성적 분포: 전체 지원자의 평균 점수가 404.43점이고 표준 편차가 27.09점이라는 것을 고려하면, 4.2정도의 성적이 상대적으로 높은 점수입니다.
+3. 학교별로 변환 점수와 평균이 다르므로, 해당 대학의 변환 점수를 정확히 알고 지원해야 합니다.
+따라서, 4.2정도의 성적을 가지고 영화학과에 지원한다면 합격 가능성이 높다고 볼 수 있습니다. 하지만 최종 합격 여부는 학교에서 공시하는 변환 점수와 지원자의 전체 성적 분포를 바탕으로 결정됩니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참조하시거나, 학교에 직접 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접 절차의 주요 내용을 정확하게 나열하고 있지만, 일부 내용이 중국어로 번역되어 있어 원본 텍스트와의 일관성이 떨어진다. 원본 텍스트의 모든 세부 사항이 포함되지 않았고, 중국어 부분은 원본과 관련이 없다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 포함하고 있지만, 중국어로 된 추가 정보가 포함되어 있어 일관성이 부족하다. 원본 텍스트와의 연결이 약해져서 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 설명: 면접 절차에 대한 정보는 포함되어 있지만, 중국어로 된 부분은 질문과 관련이 없으므로 전체적으로 관련성이 떨어진다. 원본 텍스트의 주제와 직접적으로 연결되지 않는 내용이 포함되어 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 중국어 부분이 포함되어 있어 한국어로 된 응답의 흐름이 약간 방해받는다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 일부는 일관되지만, 중국어로 된 부분이 포함되어 있어 전체적인 논리적 흐름이 깨진다. 한국어 부분과 중국어 부분 간의 연결이 부족하다.
+6. Accuracy Score (1-5): 3
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 중국어로 된 내용은 원본 텍스트와 관련이 없으므로 정확성이 떨어진다. 원본의 모든 세부 사항이 반영되지 않았다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 일부 차원에서 양호하지만, 중국어 부분으로 인해 전반적인 품질이 저하되었다. 원본 텍스트와의 일관성 및 관련성이 부족하다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답의 일부는 원본 텍스트와 관련이 있지만, 중국어로 된 부분은 의미적으로 부적절하다. 원본의 맥락과 일치하지 않는다.
+9. Understandability Score (1-5): 3
+   - 설명: 한국어 부분은 이해하기 쉽지만, 중국어 부분이 포함되어 있어 전체적으로 혼란스러울 수 있다. 한국어로만 구성된 응답이 더 명확했을 것이다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.7744554140736583</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응答
+看起来您可能是在询问面试流程。以下是面试的步骤：
+1. 在等待室入座
+2. 确认身份
+3. 移动到考场前
+4. 进入考场
+5. 发表您的志愿动机和学业计划
+6. 讨论与学业能力、专业适应性相关的一般问题并进行问答
+7. 其他质询（例如，提交文件的真实性等）
+8. 离场
+希望这些信息对您有帮助！如果有任何其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
